--- a/test/outputs/tmp.xlsx
+++ b/test/outputs/tmp.xlsx
@@ -24609,7 +24609,7 @@
       </c>
       <c r="E77" s="0" t="inlineStr">
         <is>
-          <t>Aadd9</t>
+          <t>Am6</t>
         </is>
       </c>
       <c r="F77" s="0" t="inlineStr">
@@ -24689,7 +24689,7 @@
       </c>
       <c r="U77" s="0" t="inlineStr">
         <is>
-          <t>Aadd9</t>
+          <t>Am6</t>
         </is>
       </c>
       <c r="V77" s="0" t="inlineStr">
@@ -24724,7 +24724,7 @@
       </c>
       <c r="E78" s="0" t="inlineStr">
         <is>
-          <t>Adim7</t>
+          <t>Am6</t>
         </is>
       </c>
       <c r="F78" s="0" t="inlineStr">
@@ -24759,7 +24759,7 @@
       </c>
       <c r="L78" s="0" t="inlineStr">
         <is>
-          <t>Bm7b5</t>
+          <t>Dm6</t>
         </is>
       </c>
       <c r="M78" s="0" t="inlineStr">
@@ -24804,7 +24804,7 @@
       </c>
       <c r="U78" s="0" t="inlineStr">
         <is>
-          <t>Am</t>
+          <t>Am6</t>
         </is>
       </c>
       <c r="V78" s="0" t="inlineStr">
@@ -24839,7 +24839,7 @@
       </c>
       <c r="E79" s="0" t="inlineStr">
         <is>
-          <t>Am</t>
+          <t>Am6</t>
         </is>
       </c>
       <c r="F79" s="0" t="inlineStr">
@@ -24919,7 +24919,7 @@
       </c>
       <c r="U79" s="0" t="inlineStr">
         <is>
-          <t>Am</t>
+          <t>Am6</t>
         </is>
       </c>
       <c r="V79" s="0" t="inlineStr">
@@ -24954,7 +24954,7 @@
       </c>
       <c r="E80" s="0" t="inlineStr">
         <is>
-          <t>Aadd9</t>
+          <t>Am6</t>
         </is>
       </c>
       <c r="F80" s="0" t="inlineStr">
@@ -25034,7 +25034,7 @@
       </c>
       <c r="U80" s="0" t="inlineStr">
         <is>
-          <t>Aadd9</t>
+          <t>Am6</t>
         </is>
       </c>
       <c r="V80" s="0" t="inlineStr">
@@ -26320,7 +26320,7 @@
       </c>
       <c r="G92" s="0" t="inlineStr">
         <is>
-          <t>Am7b5</t>
+          <t>Cm6</t>
         </is>
       </c>
       <c r="H92" s="0" t="inlineStr">
@@ -26365,7 +26365,7 @@
       </c>
       <c r="P92" s="0" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Cm6</t>
         </is>
       </c>
       <c r="Q92" s="0" t="inlineStr">
@@ -26435,7 +26435,7 @@
       </c>
       <c r="G93" s="0" t="inlineStr">
         <is>
-          <t>Am7b5</t>
+          <t>Cm6</t>
         </is>
       </c>
       <c r="H93" s="0" t="inlineStr">
@@ -26480,7 +26480,7 @@
       </c>
       <c r="P93" s="0" t="inlineStr">
         <is>
-          <t>Am7b5</t>
+          <t>Cm6</t>
         </is>
       </c>
       <c r="Q93" s="0" t="inlineStr">
@@ -26550,7 +26550,7 @@
       </c>
       <c r="G94" s="0" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Cm6</t>
         </is>
       </c>
       <c r="H94" s="0" t="inlineStr">
@@ -26595,7 +26595,7 @@
       </c>
       <c r="P94" s="0" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>Cm6</t>
         </is>
       </c>
       <c r="Q94" s="0" t="inlineStr">
@@ -26665,7 +26665,7 @@
       </c>
       <c r="G95" s="0" t="inlineStr">
         <is>
-          <t>Am7b5</t>
+          <t>Cm6</t>
         </is>
       </c>
       <c r="H95" s="0" t="inlineStr">
@@ -26710,7 +26710,7 @@
       </c>
       <c r="P95" s="0" t="inlineStr">
         <is>
-          <t>Am7b5</t>
+          <t>Cm6</t>
         </is>
       </c>
       <c r="Q95" s="0" t="inlineStr">
@@ -27459,34 +27459,34 @@
       </c>
       <c r="H102" s="0" t="inlineStr">
         <is>
+          <t>Em6</t>
+        </is>
+      </c>
+      <c r="I102" s="0" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J102" s="0" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K102" s="0" t="inlineStr">
+        <is>
+          <t>A#dim</t>
+        </is>
+      </c>
+      <c r="L102" s="0" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="M102" s="0" t="inlineStr">
+        <is>
           <t>Em</t>
         </is>
       </c>
-      <c r="I102" s="0" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="J102" s="0" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="K102" s="0" t="inlineStr">
-        <is>
-          <t>A#dim</t>
-        </is>
-      </c>
-      <c r="L102" s="0" t="inlineStr">
-        <is>
-          <t>B7</t>
-        </is>
-      </c>
-      <c r="M102" s="0" t="inlineStr">
-        <is>
-          <t>Em</t>
-        </is>
-      </c>
       <c r="N102" s="0" t="inlineStr">
         <is>
           <t>D#dim</t>
@@ -27499,7 +27499,7 @@
       </c>
       <c r="P102" s="0" t="inlineStr">
         <is>
-          <t>Em</t>
+          <t>Em6</t>
         </is>
       </c>
       <c r="Q102" s="0" t="inlineStr">
@@ -27574,7 +27574,7 @@
       </c>
       <c r="H103" s="0" t="inlineStr">
         <is>
-          <t>Edim7</t>
+          <t>Em6</t>
         </is>
       </c>
       <c r="I103" s="0" t="inlineStr">
@@ -27614,7 +27614,7 @@
       </c>
       <c r="P103" s="0" t="inlineStr">
         <is>
-          <t>Edim7</t>
+          <t>Em6</t>
         </is>
       </c>
       <c r="Q103" s="0" t="inlineStr">
@@ -27689,69 +27689,69 @@
       </c>
       <c r="H104" s="0" t="inlineStr">
         <is>
+          <t>Em6</t>
+        </is>
+      </c>
+      <c r="I104" s="0" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J104" s="0" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K104" s="0" t="inlineStr">
+        <is>
+          <t>A#dim</t>
+        </is>
+      </c>
+      <c r="L104" s="0" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="M104" s="0" t="inlineStr">
+        <is>
           <t>Em</t>
         </is>
       </c>
-      <c r="I104" s="0" t="inlineStr">
+      <c r="N104" s="0" t="inlineStr">
+        <is>
+          <t>D#dim</t>
+        </is>
+      </c>
+      <c r="O104" s="0" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="P104" s="0" t="inlineStr">
+        <is>
+          <t>Em6</t>
+        </is>
+      </c>
+      <c r="Q104" s="0" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="J104" s="0" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="K104" s="0" t="inlineStr">
+      <c r="R104" s="0" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="S104" s="0" t="inlineStr">
         <is>
           <t>A#dim</t>
         </is>
       </c>
-      <c r="L104" s="0" t="inlineStr">
+      <c r="T104" s="0" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="M104" s="0" t="inlineStr">
-        <is>
-          <t>Em</t>
-        </is>
-      </c>
-      <c r="N104" s="0" t="inlineStr">
-        <is>
-          <t>D#dim</t>
-        </is>
-      </c>
-      <c r="O104" s="0" t="inlineStr">
-        <is>
-          <t>D7</t>
-        </is>
-      </c>
-      <c r="P104" s="0" t="inlineStr">
-        <is>
-          <t>Em</t>
-        </is>
-      </c>
-      <c r="Q104" s="0" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="R104" s="0" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="S104" s="0" t="inlineStr">
-        <is>
-          <t>A#dim</t>
-        </is>
-      </c>
-      <c r="T104" s="0" t="inlineStr">
-        <is>
-          <t>B7</t>
-        </is>
-      </c>
       <c r="U104" s="0" t="inlineStr">
         <is>
           <t>CM7</t>
@@ -27759,7 +27759,7 @@
       </c>
       <c r="V104" s="0" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D6</t>
         </is>
       </c>
       <c r="W104" s="0">
@@ -27804,7 +27804,7 @@
       </c>
       <c r="H105" s="0" t="inlineStr">
         <is>
-          <t>Edim7</t>
+          <t>Em6</t>
         </is>
       </c>
       <c r="I105" s="0" t="inlineStr">
@@ -27844,7 +27844,7 @@
       </c>
       <c r="P105" s="0" t="inlineStr">
         <is>
-          <t>Em7</t>
+          <t>Em6</t>
         </is>
       </c>
       <c r="Q105" s="0" t="inlineStr">
@@ -28021,24 +28021,24 @@
       </c>
       <c r="G107" s="0" t="inlineStr">
         <is>
+          <t>Em6</t>
+        </is>
+      </c>
+      <c r="H107" s="0" t="inlineStr">
+        <is>
+          <t>F#7</t>
+        </is>
+      </c>
+      <c r="I107" s="0" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="J107" s="0" t="inlineStr">
+        <is>
           <t>Em</t>
         </is>
       </c>
-      <c r="H107" s="0" t="inlineStr">
-        <is>
-          <t>F#7</t>
-        </is>
-      </c>
-      <c r="I107" s="0" t="inlineStr">
-        <is>
-          <t>B7</t>
-        </is>
-      </c>
-      <c r="J107" s="0" t="inlineStr">
-        <is>
-          <t>Em</t>
-        </is>
-      </c>
       <c r="K107" s="0" t="inlineStr">
         <is>
           <t>B7sus4</t>
@@ -28066,7 +28066,7 @@
       </c>
       <c r="P107" s="0" t="inlineStr">
         <is>
-          <t>Em</t>
+          <t>Em6</t>
         </is>
       </c>
       <c r="Q107" s="0" t="inlineStr">
@@ -28136,7 +28136,7 @@
       </c>
       <c r="G108" s="0" t="inlineStr">
         <is>
-          <t>C#dim</t>
+          <t>Em6</t>
         </is>
       </c>
       <c r="H108" s="0" t="inlineStr">
@@ -28181,7 +28181,7 @@
       </c>
       <c r="P108" s="0" t="inlineStr">
         <is>
-          <t>Edim7</t>
+          <t>Em6</t>
         </is>
       </c>
       <c r="Q108" s="0" t="inlineStr">
@@ -28251,24 +28251,24 @@
       </c>
       <c r="G109" s="0" t="inlineStr">
         <is>
+          <t>Em6</t>
+        </is>
+      </c>
+      <c r="H109" s="0" t="inlineStr">
+        <is>
+          <t>F#7</t>
+        </is>
+      </c>
+      <c r="I109" s="0" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="J109" s="0" t="inlineStr">
+        <is>
           <t>Em</t>
         </is>
       </c>
-      <c r="H109" s="0" t="inlineStr">
-        <is>
-          <t>F#7</t>
-        </is>
-      </c>
-      <c r="I109" s="0" t="inlineStr">
-        <is>
-          <t>B7</t>
-        </is>
-      </c>
-      <c r="J109" s="0" t="inlineStr">
-        <is>
-          <t>Em</t>
-        </is>
-      </c>
       <c r="K109" s="0" t="inlineStr">
         <is>
           <t>B7sus4</t>
@@ -28296,7 +28296,7 @@
       </c>
       <c r="P109" s="0" t="inlineStr">
         <is>
-          <t>Em</t>
+          <t>Em6</t>
         </is>
       </c>
       <c r="Q109" s="0" t="inlineStr">
@@ -28366,29 +28366,29 @@
       </c>
       <c r="G110" s="0" t="inlineStr">
         <is>
+          <t>Em6</t>
+        </is>
+      </c>
+      <c r="H110" s="0" t="inlineStr">
+        <is>
+          <t>F#7</t>
+        </is>
+      </c>
+      <c r="I110" s="0" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="J110" s="0" t="inlineStr">
+        <is>
           <t>Em</t>
         </is>
       </c>
-      <c r="H110" s="0" t="inlineStr">
-        <is>
-          <t>F#7</t>
-        </is>
-      </c>
-      <c r="I110" s="0" t="inlineStr">
+      <c r="K110" s="0" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="J110" s="0" t="inlineStr">
-        <is>
-          <t>Em</t>
-        </is>
-      </c>
-      <c r="K110" s="0" t="inlineStr">
-        <is>
-          <t>B7</t>
-        </is>
-      </c>
       <c r="L110" s="0" t="inlineStr">
         <is>
           <t>Em7</t>
@@ -28411,7 +28411,7 @@
       </c>
       <c r="P110" s="0" t="inlineStr">
         <is>
-          <t>Em7</t>
+          <t>Em6</t>
         </is>
       </c>
       <c r="Q110" s="0" t="inlineStr">
@@ -31288,11 +31288,10 @@
         <v/>
       </c>
     </row>
-    <row r="136"/>
     <row r="137">
       <c r="B137" s="0" t="inlineStr">
         <is>
-          <t>cosine similarity matching harmonic 0.6-6 template scaled, normal distribution comb filter, stft mags ln scaled, E2-D#6, select first</t>
+          <t>mean reassign</t>
         </is>
       </c>
     </row>
@@ -31411,12 +31410,12 @@
       </c>
       <c r="C139" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D139" s="0" t="inlineStr">
         <is>
-          <t>Emadd9</t>
+          <t>Em</t>
         </is>
       </c>
       <c r="E139" s="0" t="inlineStr">
@@ -31426,7 +31425,7 @@
       </c>
       <c r="F139" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G139" s="0" t="inlineStr">
@@ -31441,12 +31440,12 @@
       </c>
       <c r="I139" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="J139" s="0" t="inlineStr">
         <is>
-          <t>Emadd9</t>
+          <t>Em</t>
         </is>
       </c>
       <c r="K139" s="0" t="inlineStr">
@@ -31456,7 +31455,7 @@
       </c>
       <c r="L139" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="M139" s="0" t="inlineStr">
@@ -31471,7 +31470,7 @@
       </c>
       <c r="O139" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="P139" s="0" t="inlineStr">
@@ -31481,12 +31480,12 @@
       </c>
       <c r="Q139" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="R139" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="S139" s="0" t="inlineStr">
@@ -31501,7 +31500,7 @@
       </c>
       <c r="U139" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="V139" s="0" t="inlineStr">
@@ -31526,7 +31525,7 @@
       </c>
       <c r="C140" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D140" s="0" t="inlineStr">
@@ -31541,7 +31540,7 @@
       </c>
       <c r="F140" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G140" s="0" t="inlineStr">
@@ -31556,7 +31555,7 @@
       </c>
       <c r="I140" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="J140" s="0" t="inlineStr">
@@ -31571,7 +31570,7 @@
       </c>
       <c r="L140" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="M140" s="0" t="inlineStr">
@@ -31586,7 +31585,7 @@
       </c>
       <c r="O140" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="P140" s="0" t="inlineStr">
@@ -31596,12 +31595,12 @@
       </c>
       <c r="Q140" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="R140" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="S140" s="0" t="inlineStr">
@@ -31616,7 +31615,7 @@
       </c>
       <c r="U140" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="V140" s="0" t="inlineStr">
@@ -31641,7 +31640,7 @@
       </c>
       <c r="C141" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D141" s="0" t="inlineStr">
@@ -31656,7 +31655,7 @@
       </c>
       <c r="F141" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G141" s="0" t="inlineStr">
@@ -31671,7 +31670,7 @@
       </c>
       <c r="I141" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="J141" s="0" t="inlineStr">
@@ -31686,7 +31685,7 @@
       </c>
       <c r="L141" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="M141" s="0" t="inlineStr">
@@ -31701,7 +31700,7 @@
       </c>
       <c r="O141" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="P141" s="0" t="inlineStr">
@@ -31711,12 +31710,12 @@
       </c>
       <c r="Q141" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="R141" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="S141" s="0" t="inlineStr">
@@ -31731,7 +31730,7 @@
       </c>
       <c r="U141" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="V141" s="0" t="inlineStr">
@@ -31756,12 +31755,12 @@
       </c>
       <c r="C142" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D142" s="0" t="inlineStr">
         <is>
-          <t>Emadd9</t>
+          <t>Em</t>
         </is>
       </c>
       <c r="E142" s="0" t="inlineStr">
@@ -31771,7 +31770,7 @@
       </c>
       <c r="F142" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G142" s="0" t="inlineStr">
@@ -31786,12 +31785,12 @@
       </c>
       <c r="I142" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="J142" s="0" t="inlineStr">
         <is>
-          <t>Emadd9</t>
+          <t>Em</t>
         </is>
       </c>
       <c r="K142" s="0" t="inlineStr">
@@ -31801,7 +31800,7 @@
       </c>
       <c r="L142" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="M142" s="0" t="inlineStr">
@@ -31816,7 +31815,7 @@
       </c>
       <c r="O142" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="P142" s="0" t="inlineStr">
@@ -31826,12 +31825,12 @@
       </c>
       <c r="Q142" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="R142" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="S142" s="0" t="inlineStr">
@@ -31846,7 +31845,7 @@
       </c>
       <c r="U142" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="V142" s="0" t="inlineStr">
@@ -31983,12 +31982,12 @@
       </c>
       <c r="D144" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E144" s="0" t="inlineStr">
         <is>
-          <t>F#m7b5</t>
+          <t>Am6</t>
         </is>
       </c>
       <c r="F144" s="0" t="inlineStr">
@@ -32018,7 +32017,7 @@
       </c>
       <c r="K144" s="0" t="inlineStr">
         <is>
-          <t>Emadd9</t>
+          <t>Em</t>
         </is>
       </c>
       <c r="L144" s="0" t="inlineStr">
@@ -32048,7 +32047,7 @@
       </c>
       <c r="Q144" s="0" t="inlineStr">
         <is>
-          <t>Emadd9</t>
+          <t>Em</t>
         </is>
       </c>
       <c r="R144" s="0" t="inlineStr">
@@ -32063,12 +32062,12 @@
       </c>
       <c r="T144" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="U144" s="0" t="inlineStr">
         <is>
-          <t>F#m7b5</t>
+          <t>Am6</t>
         </is>
       </c>
       <c r="V144" s="0" t="inlineStr">
@@ -32098,12 +32097,12 @@
       </c>
       <c r="D145" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E145" s="0" t="inlineStr">
         <is>
-          <t>F#m7b5</t>
+          <t>Am6</t>
         </is>
       </c>
       <c r="F145" s="0" t="inlineStr">
@@ -32138,7 +32137,7 @@
       </c>
       <c r="L145" s="0" t="inlineStr">
         <is>
-          <t>Bdim</t>
+          <t>Dm6</t>
         </is>
       </c>
       <c r="M145" s="0" t="inlineStr">
@@ -32178,12 +32177,12 @@
       </c>
       <c r="T145" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="U145" s="0" t="inlineStr">
         <is>
-          <t>F#m7b5</t>
+          <t>Am6</t>
         </is>
       </c>
       <c r="V145" s="0" t="inlineStr">
@@ -32213,12 +32212,12 @@
       </c>
       <c r="D146" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E146" s="0" t="inlineStr">
         <is>
-          <t>F#m7b5</t>
+          <t>Am6</t>
         </is>
       </c>
       <c r="F146" s="0" t="inlineStr">
@@ -32293,12 +32292,12 @@
       </c>
       <c r="T146" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="U146" s="0" t="inlineStr">
         <is>
-          <t>F#m7b5</t>
+          <t>Am6</t>
         </is>
       </c>
       <c r="V146" s="0" t="inlineStr">
@@ -32328,12 +32327,12 @@
       </c>
       <c r="D147" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E147" s="0" t="inlineStr">
         <is>
-          <t>F#m7b5</t>
+          <t>Am6</t>
         </is>
       </c>
       <c r="F147" s="0" t="inlineStr">
@@ -32363,7 +32362,7 @@
       </c>
       <c r="K147" s="0" t="inlineStr">
         <is>
-          <t>Emadd9</t>
+          <t>Em</t>
         </is>
       </c>
       <c r="L147" s="0" t="inlineStr">
@@ -32393,7 +32392,7 @@
       </c>
       <c r="Q147" s="0" t="inlineStr">
         <is>
-          <t>Emadd9</t>
+          <t>Em</t>
         </is>
       </c>
       <c r="R147" s="0" t="inlineStr">
@@ -32408,12 +32407,12 @@
       </c>
       <c r="T147" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="U147" s="0" t="inlineStr">
         <is>
-          <t>F#m7b5</t>
+          <t>Am6</t>
         </is>
       </c>
       <c r="V147" s="0" t="inlineStr">
@@ -32545,102 +32544,102 @@
       </c>
       <c r="C149" s="0" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D149" s="0" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E149" s="0" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+      <c r="F149" s="0" t="inlineStr">
+        <is>
+          <t>Bm7b5</t>
+        </is>
+      </c>
+      <c r="G149" s="0" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="H149" s="0" t="inlineStr">
+        <is>
+          <t>Am7</t>
+        </is>
+      </c>
+      <c r="I149" s="0" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="J149" s="0" t="inlineStr">
+        <is>
+          <t>Dm7</t>
+        </is>
+      </c>
+      <c r="K149" s="0" t="inlineStr">
+        <is>
+          <t>G7</t>
+        </is>
+      </c>
+      <c r="L149" s="0" t="inlineStr">
+        <is>
+          <t>Gm7</t>
+        </is>
+      </c>
+      <c r="M149" s="0" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
+      </c>
+      <c r="N149" s="0" t="inlineStr">
+        <is>
           <t>FM7</t>
         </is>
       </c>
-      <c r="D149" s="0" t="inlineStr">
-        <is>
-          <t>CM7</t>
-        </is>
-      </c>
-      <c r="E149" s="0" t="inlineStr">
+      <c r="O149" s="0" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P149" s="0" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="Q149" s="0" t="inlineStr">
+        <is>
+          <t>Am</t>
+        </is>
+      </c>
+      <c r="R149" s="0" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="S149" s="0" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="T149" s="0" t="inlineStr">
         <is>
           <t>Dm</t>
         </is>
       </c>
-      <c r="F149" s="0" t="inlineStr">
+      <c r="U149" s="0" t="inlineStr">
         <is>
           <t>Bm7b5</t>
         </is>
       </c>
-      <c r="G149" s="0" t="inlineStr">
-        <is>
-          <t>Eadd9</t>
-        </is>
-      </c>
-      <c r="H149" s="0" t="inlineStr">
-        <is>
-          <t>Am7</t>
-        </is>
-      </c>
-      <c r="I149" s="0" t="inlineStr">
-        <is>
-          <t>D7</t>
-        </is>
-      </c>
-      <c r="J149" s="0" t="inlineStr">
-        <is>
-          <t>Dm7</t>
-        </is>
-      </c>
-      <c r="K149" s="0" t="inlineStr">
-        <is>
-          <t>G7</t>
-        </is>
-      </c>
-      <c r="L149" s="0" t="inlineStr">
-        <is>
-          <t>Gm7</t>
-        </is>
-      </c>
-      <c r="M149" s="0" t="inlineStr">
-        <is>
-          <t>C7</t>
-        </is>
-      </c>
-      <c r="N149" s="0" t="inlineStr">
-        <is>
-          <t>FM7</t>
-        </is>
-      </c>
-      <c r="O149" s="0" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="P149" s="0" t="inlineStr">
-        <is>
-          <t>Eadd9</t>
-        </is>
-      </c>
-      <c r="Q149" s="0" t="inlineStr">
-        <is>
-          <t>Amadd9</t>
-        </is>
-      </c>
-      <c r="R149" s="0" t="inlineStr">
-        <is>
-          <t>FM7</t>
-        </is>
-      </c>
-      <c r="S149" s="0" t="inlineStr">
-        <is>
-          <t>CM7</t>
-        </is>
-      </c>
-      <c r="T149" s="0" t="inlineStr">
-        <is>
-          <t>Dm</t>
-        </is>
-      </c>
-      <c r="U149" s="0" t="inlineStr">
-        <is>
-          <t>Bm7b5</t>
-        </is>
-      </c>
       <c r="V149" s="0" t="inlineStr">
         <is>
-          <t>Eadd9</t>
+          <t>E</t>
         </is>
       </c>
       <c r="W149" s="0">
@@ -32660,97 +32659,97 @@
       </c>
       <c r="C150" s="0" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D150" s="0" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E150" s="0" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+      <c r="F150" s="0" t="inlineStr">
+        <is>
+          <t>Bm7b5</t>
+        </is>
+      </c>
+      <c r="G150" s="0" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="H150" s="0" t="inlineStr">
+        <is>
+          <t>Am7</t>
+        </is>
+      </c>
+      <c r="I150" s="0" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="J150" s="0" t="inlineStr">
+        <is>
+          <t>Dm7</t>
+        </is>
+      </c>
+      <c r="K150" s="0" t="inlineStr">
+        <is>
+          <t>G7</t>
+        </is>
+      </c>
+      <c r="L150" s="0" t="inlineStr">
+        <is>
+          <t>Gm7</t>
+        </is>
+      </c>
+      <c r="M150" s="0" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
+      </c>
+      <c r="N150" s="0" t="inlineStr">
+        <is>
           <t>FM7</t>
         </is>
       </c>
-      <c r="D150" s="0" t="inlineStr">
-        <is>
-          <t>CM7</t>
-        </is>
-      </c>
-      <c r="E150" s="0" t="inlineStr">
+      <c r="O150" s="0" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P150" s="0" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="Q150" s="0" t="inlineStr">
+        <is>
+          <t>Am</t>
+        </is>
+      </c>
+      <c r="R150" s="0" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="S150" s="0" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="T150" s="0" t="inlineStr">
         <is>
           <t>Dm</t>
         </is>
       </c>
-      <c r="F150" s="0" t="inlineStr">
-        <is>
-          <t>Bdim</t>
-        </is>
-      </c>
-      <c r="G150" s="0" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="H150" s="0" t="inlineStr">
-        <is>
-          <t>Am7</t>
-        </is>
-      </c>
-      <c r="I150" s="0" t="inlineStr">
-        <is>
-          <t>D7</t>
-        </is>
-      </c>
-      <c r="J150" s="0" t="inlineStr">
-        <is>
-          <t>Dm7</t>
-        </is>
-      </c>
-      <c r="K150" s="0" t="inlineStr">
-        <is>
-          <t>G7</t>
-        </is>
-      </c>
-      <c r="L150" s="0" t="inlineStr">
-        <is>
-          <t>Gm7</t>
-        </is>
-      </c>
-      <c r="M150" s="0" t="inlineStr">
-        <is>
-          <t>C7</t>
-        </is>
-      </c>
-      <c r="N150" s="0" t="inlineStr">
-        <is>
-          <t>FM7</t>
-        </is>
-      </c>
-      <c r="O150" s="0" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="P150" s="0" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="Q150" s="0" t="inlineStr">
-        <is>
-          <t>Am</t>
-        </is>
-      </c>
-      <c r="R150" s="0" t="inlineStr">
-        <is>
-          <t>FM7</t>
-        </is>
-      </c>
-      <c r="S150" s="0" t="inlineStr">
-        <is>
-          <t>CM7</t>
-        </is>
-      </c>
-      <c r="T150" s="0" t="inlineStr">
-        <is>
-          <t>Dm</t>
-        </is>
-      </c>
       <c r="U150" s="0" t="inlineStr">
         <is>
-          <t>Bdim</t>
+          <t>Bm7b5</t>
         </is>
       </c>
       <c r="V150" s="0" t="inlineStr">
@@ -32775,74 +32774,74 @@
       </c>
       <c r="C151" s="0" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D151" s="0" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E151" s="0" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+      <c r="F151" s="0" t="inlineStr">
+        <is>
+          <t>Bm7b5</t>
+        </is>
+      </c>
+      <c r="G151" s="0" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="H151" s="0" t="inlineStr">
+        <is>
+          <t>Am7</t>
+        </is>
+      </c>
+      <c r="I151" s="0" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="J151" s="0" t="inlineStr">
+        <is>
+          <t>Dm7</t>
+        </is>
+      </c>
+      <c r="K151" s="0" t="inlineStr">
+        <is>
+          <t>G7</t>
+        </is>
+      </c>
+      <c r="L151" s="0" t="inlineStr">
+        <is>
+          <t>Gm7</t>
+        </is>
+      </c>
+      <c r="M151" s="0" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
+      </c>
+      <c r="N151" s="0" t="inlineStr">
+        <is>
           <t>FM7</t>
         </is>
       </c>
-      <c r="D151" s="0" t="inlineStr">
-        <is>
-          <t>CM7</t>
-        </is>
-      </c>
-      <c r="E151" s="0" t="inlineStr">
-        <is>
-          <t>Dm</t>
-        </is>
-      </c>
-      <c r="F151" s="0" t="inlineStr">
-        <is>
-          <t>Bm7b5</t>
-        </is>
-      </c>
-      <c r="G151" s="0" t="inlineStr">
+      <c r="O151" s="0" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P151" s="0" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="H151" s="0" t="inlineStr">
-        <is>
-          <t>Am7</t>
-        </is>
-      </c>
-      <c r="I151" s="0" t="inlineStr">
-        <is>
-          <t>D7</t>
-        </is>
-      </c>
-      <c r="J151" s="0" t="inlineStr">
-        <is>
-          <t>Dm7</t>
-        </is>
-      </c>
-      <c r="K151" s="0" t="inlineStr">
-        <is>
-          <t>G7</t>
-        </is>
-      </c>
-      <c r="L151" s="0" t="inlineStr">
-        <is>
-          <t>Gm7</t>
-        </is>
-      </c>
-      <c r="M151" s="0" t="inlineStr">
-        <is>
-          <t>C7</t>
-        </is>
-      </c>
-      <c r="N151" s="0" t="inlineStr">
-        <is>
-          <t>FM7</t>
-        </is>
-      </c>
-      <c r="O151" s="0" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="P151" s="0" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
       <c r="Q151" s="0" t="inlineStr">
         <is>
           <t>Am</t>
@@ -32850,12 +32849,12 @@
       </c>
       <c r="R151" s="0" t="inlineStr">
         <is>
-          <t>FM7</t>
+          <t>F</t>
         </is>
       </c>
       <c r="S151" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="T151" s="0" t="inlineStr">
@@ -32890,102 +32889,102 @@
       </c>
       <c r="C152" s="0" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D152" s="0" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E152" s="0" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+      <c r="F152" s="0" t="inlineStr">
+        <is>
+          <t>Bdim</t>
+        </is>
+      </c>
+      <c r="G152" s="0" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="H152" s="0" t="inlineStr">
+        <is>
+          <t>Am7</t>
+        </is>
+      </c>
+      <c r="I152" s="0" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="J152" s="0" t="inlineStr">
+        <is>
+          <t>Dm7</t>
+        </is>
+      </c>
+      <c r="K152" s="0" t="inlineStr">
+        <is>
+          <t>G7</t>
+        </is>
+      </c>
+      <c r="L152" s="0" t="inlineStr">
+        <is>
+          <t>Gm7</t>
+        </is>
+      </c>
+      <c r="M152" s="0" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
+      </c>
+      <c r="N152" s="0" t="inlineStr">
+        <is>
           <t>FM7</t>
         </is>
       </c>
-      <c r="D152" s="0" t="inlineStr">
-        <is>
-          <t>CM7</t>
-        </is>
-      </c>
-      <c r="E152" s="0" t="inlineStr">
+      <c r="O152" s="0" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P152" s="0" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="Q152" s="0" t="inlineStr">
+        <is>
+          <t>Am</t>
+        </is>
+      </c>
+      <c r="R152" s="0" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="S152" s="0" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="T152" s="0" t="inlineStr">
         <is>
           <t>Dm</t>
         </is>
       </c>
-      <c r="F152" s="0" t="inlineStr">
+      <c r="U152" s="0" t="inlineStr">
         <is>
           <t>Bdim</t>
         </is>
       </c>
-      <c r="G152" s="0" t="inlineStr">
-        <is>
-          <t>Eadd9</t>
-        </is>
-      </c>
-      <c r="H152" s="0" t="inlineStr">
-        <is>
-          <t>Am7</t>
-        </is>
-      </c>
-      <c r="I152" s="0" t="inlineStr">
-        <is>
-          <t>D7</t>
-        </is>
-      </c>
-      <c r="J152" s="0" t="inlineStr">
-        <is>
-          <t>Dm7</t>
-        </is>
-      </c>
-      <c r="K152" s="0" t="inlineStr">
-        <is>
-          <t>G7</t>
-        </is>
-      </c>
-      <c r="L152" s="0" t="inlineStr">
-        <is>
-          <t>Gm7</t>
-        </is>
-      </c>
-      <c r="M152" s="0" t="inlineStr">
-        <is>
-          <t>C7</t>
-        </is>
-      </c>
-      <c r="N152" s="0" t="inlineStr">
-        <is>
-          <t>FM7</t>
-        </is>
-      </c>
-      <c r="O152" s="0" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="P152" s="0" t="inlineStr">
-        <is>
-          <t>Eadd9</t>
-        </is>
-      </c>
-      <c r="Q152" s="0" t="inlineStr">
-        <is>
-          <t>Am</t>
-        </is>
-      </c>
-      <c r="R152" s="0" t="inlineStr">
-        <is>
-          <t>FM7</t>
-        </is>
-      </c>
-      <c r="S152" s="0" t="inlineStr">
-        <is>
-          <t>CM7</t>
-        </is>
-      </c>
-      <c r="T152" s="0" t="inlineStr">
-        <is>
-          <t>Dm</t>
-        </is>
-      </c>
-      <c r="U152" s="0" t="inlineStr">
-        <is>
-          <t>Bdim</t>
-        </is>
-      </c>
       <c r="V152" s="0" t="inlineStr">
         <is>
-          <t>Eadd9</t>
+          <t>E</t>
         </is>
       </c>
       <c r="W152" s="0">
@@ -33122,12 +33121,12 @@
       </c>
       <c r="E154" s="0" t="inlineStr">
         <is>
-          <t>B7sus4</t>
+          <t>Esus4</t>
         </is>
       </c>
       <c r="F154" s="0" t="inlineStr">
         <is>
-          <t>Eadd9</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G154" s="0" t="inlineStr">
@@ -33152,12 +33151,12 @@
       </c>
       <c r="K154" s="0" t="inlineStr">
         <is>
-          <t>B7sus4</t>
+          <t>Esus4</t>
         </is>
       </c>
       <c r="L154" s="0" t="inlineStr">
         <is>
-          <t>Eadd9</t>
+          <t>E</t>
         </is>
       </c>
       <c r="M154" s="0" t="inlineStr">
@@ -33167,7 +33166,7 @@
       </c>
       <c r="N154" s="0" t="inlineStr">
         <is>
-          <t>Eadd9</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O154" s="0" t="inlineStr">
@@ -33177,7 +33176,7 @@
       </c>
       <c r="P154" s="0" t="inlineStr">
         <is>
-          <t>Eadd9</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Q154" s="0" t="inlineStr">
@@ -33202,7 +33201,7 @@
       </c>
       <c r="U154" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G7</t>
         </is>
       </c>
       <c r="V154" s="0" t="inlineStr">
@@ -33317,7 +33316,7 @@
       </c>
       <c r="U155" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G7</t>
         </is>
       </c>
       <c r="V155" s="0" t="inlineStr">
@@ -33467,12 +33466,12 @@
       </c>
       <c r="E157" s="0" t="inlineStr">
         <is>
-          <t>Bsus4</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F157" s="0" t="inlineStr">
         <is>
-          <t>Eadd9</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G157" s="0" t="inlineStr">
@@ -33497,12 +33496,12 @@
       </c>
       <c r="K157" s="0" t="inlineStr">
         <is>
-          <t>Bsus4</t>
+          <t>E</t>
         </is>
       </c>
       <c r="L157" s="0" t="inlineStr">
         <is>
-          <t>Eadd9</t>
+          <t>E</t>
         </is>
       </c>
       <c r="M157" s="0" t="inlineStr">
@@ -33512,7 +33511,7 @@
       </c>
       <c r="N157" s="0" t="inlineStr">
         <is>
-          <t>Eadd9</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O157" s="0" t="inlineStr">
@@ -33522,7 +33521,7 @@
       </c>
       <c r="P157" s="0" t="inlineStr">
         <is>
-          <t>Eadd9</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Q157" s="0" t="inlineStr">
@@ -33547,7 +33546,7 @@
       </c>
       <c r="U157" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G7</t>
         </is>
       </c>
       <c r="V157" s="0" t="inlineStr">
@@ -33684,7 +33683,7 @@
       </c>
       <c r="D159" s="0" t="inlineStr">
         <is>
-          <t>FM7</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E159" s="0" t="inlineStr">
@@ -33694,12 +33693,12 @@
       </c>
       <c r="F159" s="0" t="inlineStr">
         <is>
-          <t>GmM7</t>
+          <t>Gm</t>
         </is>
       </c>
       <c r="G159" s="0" t="inlineStr">
         <is>
-          <t>Am7b5</t>
+          <t>Cm6</t>
         </is>
       </c>
       <c r="H159" s="0" t="inlineStr">
@@ -33709,7 +33708,7 @@
       </c>
       <c r="I159" s="0" t="inlineStr">
         <is>
-          <t>GmM7</t>
+          <t>Gm</t>
         </is>
       </c>
       <c r="J159" s="0" t="inlineStr">
@@ -33719,7 +33718,7 @@
       </c>
       <c r="K159" s="0" t="inlineStr">
         <is>
-          <t>GmM7</t>
+          <t>Gm</t>
         </is>
       </c>
       <c r="L159" s="0" t="inlineStr">
@@ -33729,7 +33728,7 @@
       </c>
       <c r="M159" s="0" t="inlineStr">
         <is>
-          <t>FM7</t>
+          <t>F</t>
         </is>
       </c>
       <c r="N159" s="0" t="inlineStr">
@@ -33739,12 +33738,12 @@
       </c>
       <c r="O159" s="0" t="inlineStr">
         <is>
-          <t>GmM7</t>
+          <t>Gm</t>
         </is>
       </c>
       <c r="P159" s="0" t="inlineStr">
         <is>
-          <t>Am7b5</t>
+          <t>Cm6</t>
         </is>
       </c>
       <c r="Q159" s="0" t="inlineStr">
@@ -33754,12 +33753,12 @@
       </c>
       <c r="R159" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="S159" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="T159" s="0" t="inlineStr">
@@ -33774,7 +33773,7 @@
       </c>
       <c r="V159" s="0" t="inlineStr">
         <is>
-          <t>Emadd9</t>
+          <t>Em</t>
         </is>
       </c>
       <c r="W159" s="0">
@@ -33799,7 +33798,7 @@
       </c>
       <c r="D160" s="0" t="inlineStr">
         <is>
-          <t>FM7</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E160" s="0" t="inlineStr">
@@ -33809,12 +33808,12 @@
       </c>
       <c r="F160" s="0" t="inlineStr">
         <is>
-          <t>GmM7</t>
+          <t>Gm</t>
         </is>
       </c>
       <c r="G160" s="0" t="inlineStr">
         <is>
-          <t>Am7b5</t>
+          <t>Cm6</t>
         </is>
       </c>
       <c r="H160" s="0" t="inlineStr">
@@ -33824,7 +33823,7 @@
       </c>
       <c r="I160" s="0" t="inlineStr">
         <is>
-          <t>GmM7</t>
+          <t>Gm</t>
         </is>
       </c>
       <c r="J160" s="0" t="inlineStr">
@@ -33834,7 +33833,7 @@
       </c>
       <c r="K160" s="0" t="inlineStr">
         <is>
-          <t>GmM7</t>
+          <t>Gm</t>
         </is>
       </c>
       <c r="L160" s="0" t="inlineStr">
@@ -33844,7 +33843,7 @@
       </c>
       <c r="M160" s="0" t="inlineStr">
         <is>
-          <t>FM7</t>
+          <t>F</t>
         </is>
       </c>
       <c r="N160" s="0" t="inlineStr">
@@ -33854,12 +33853,12 @@
       </c>
       <c r="O160" s="0" t="inlineStr">
         <is>
-          <t>GmM7</t>
+          <t>Gm</t>
         </is>
       </c>
       <c r="P160" s="0" t="inlineStr">
         <is>
-          <t>Am7b5</t>
+          <t>Cm6</t>
         </is>
       </c>
       <c r="Q160" s="0" t="inlineStr">
@@ -33869,12 +33868,12 @@
       </c>
       <c r="R160" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="S160" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="T160" s="0" t="inlineStr">
@@ -33914,7 +33913,7 @@
       </c>
       <c r="D161" s="0" t="inlineStr">
         <is>
-          <t>FM7</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E161" s="0" t="inlineStr">
@@ -33924,12 +33923,12 @@
       </c>
       <c r="F161" s="0" t="inlineStr">
         <is>
-          <t>GmM7</t>
+          <t>Gm</t>
         </is>
       </c>
       <c r="G161" s="0" t="inlineStr">
         <is>
-          <t>Am7b5</t>
+          <t>Cm6</t>
         </is>
       </c>
       <c r="H161" s="0" t="inlineStr">
@@ -33939,7 +33938,7 @@
       </c>
       <c r="I161" s="0" t="inlineStr">
         <is>
-          <t>GmM7</t>
+          <t>Gm</t>
         </is>
       </c>
       <c r="J161" s="0" t="inlineStr">
@@ -33949,7 +33948,7 @@
       </c>
       <c r="K161" s="0" t="inlineStr">
         <is>
-          <t>GmM7</t>
+          <t>Gm</t>
         </is>
       </c>
       <c r="L161" s="0" t="inlineStr">
@@ -33959,7 +33958,7 @@
       </c>
       <c r="M161" s="0" t="inlineStr">
         <is>
-          <t>FM7</t>
+          <t>F</t>
         </is>
       </c>
       <c r="N161" s="0" t="inlineStr">
@@ -33969,12 +33968,12 @@
       </c>
       <c r="O161" s="0" t="inlineStr">
         <is>
-          <t>GmM7</t>
+          <t>Gm</t>
         </is>
       </c>
       <c r="P161" s="0" t="inlineStr">
         <is>
-          <t>Am7b5</t>
+          <t>Cm6</t>
         </is>
       </c>
       <c r="Q161" s="0" t="inlineStr">
@@ -33984,12 +33983,12 @@
       </c>
       <c r="R161" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="S161" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="T161" s="0" t="inlineStr">
@@ -34029,7 +34028,7 @@
       </c>
       <c r="D162" s="0" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Faug</t>
         </is>
       </c>
       <c r="E162" s="0" t="inlineStr">
@@ -34039,12 +34038,12 @@
       </c>
       <c r="F162" s="0" t="inlineStr">
         <is>
-          <t>GmM7</t>
+          <t>Gm</t>
         </is>
       </c>
       <c r="G162" s="0" t="inlineStr">
         <is>
-          <t>Am7b5</t>
+          <t>Cm6</t>
         </is>
       </c>
       <c r="H162" s="0" t="inlineStr">
@@ -34054,7 +34053,7 @@
       </c>
       <c r="I162" s="0" t="inlineStr">
         <is>
-          <t>GmM7</t>
+          <t>Gm</t>
         </is>
       </c>
       <c r="J162" s="0" t="inlineStr">
@@ -34064,7 +34063,7 @@
       </c>
       <c r="K162" s="0" t="inlineStr">
         <is>
-          <t>GmM7</t>
+          <t>Gm</t>
         </is>
       </c>
       <c r="L162" s="0" t="inlineStr">
@@ -34074,7 +34073,7 @@
       </c>
       <c r="M162" s="0" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Faug</t>
         </is>
       </c>
       <c r="N162" s="0" t="inlineStr">
@@ -34084,12 +34083,12 @@
       </c>
       <c r="O162" s="0" t="inlineStr">
         <is>
-          <t>GmM7</t>
+          <t>Gm</t>
         </is>
       </c>
       <c r="P162" s="0" t="inlineStr">
         <is>
-          <t>Am7b5</t>
+          <t>Cm6</t>
         </is>
       </c>
       <c r="Q162" s="0" t="inlineStr">
@@ -34099,12 +34098,12 @@
       </c>
       <c r="R162" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="S162" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="T162" s="0" t="inlineStr">
@@ -34119,7 +34118,7 @@
       </c>
       <c r="V162" s="0" t="inlineStr">
         <is>
-          <t>Emadd9</t>
+          <t>Em</t>
         </is>
       </c>
       <c r="W162" s="0">
@@ -34246,7 +34245,7 @@
       </c>
       <c r="C164" s="0" t="inlineStr">
         <is>
-          <t>Eadd9</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D164" s="0" t="inlineStr">
@@ -34256,7 +34255,7 @@
       </c>
       <c r="E164" s="0" t="inlineStr">
         <is>
-          <t>F#mM7</t>
+          <t>F#m</t>
         </is>
       </c>
       <c r="F164" s="0" t="inlineStr">
@@ -34306,7 +34305,7 @@
       </c>
       <c r="O164" s="0" t="inlineStr">
         <is>
-          <t>Eadd9</t>
+          <t>E</t>
         </is>
       </c>
       <c r="P164" s="0" t="inlineStr">
@@ -34321,7 +34320,7 @@
       </c>
       <c r="R164" s="0" t="inlineStr">
         <is>
-          <t>Amadd9</t>
+          <t>Am</t>
         </is>
       </c>
       <c r="S164" s="0" t="inlineStr">
@@ -34331,7 +34330,7 @@
       </c>
       <c r="T164" s="0" t="inlineStr">
         <is>
-          <t>Eadd9</t>
+          <t>E</t>
         </is>
       </c>
       <c r="U164" s="0" t="inlineStr">
@@ -34371,7 +34370,7 @@
       </c>
       <c r="E165" s="0" t="inlineStr">
         <is>
-          <t>F#mM7</t>
+          <t>F#m</t>
         </is>
       </c>
       <c r="F165" s="0" t="inlineStr">
@@ -34486,7 +34485,7 @@
       </c>
       <c r="E166" s="0" t="inlineStr">
         <is>
-          <t>F#mM7</t>
+          <t>F#m</t>
         </is>
       </c>
       <c r="F166" s="0" t="inlineStr">
@@ -34601,7 +34600,7 @@
       </c>
       <c r="E167" s="0" t="inlineStr">
         <is>
-          <t>F#mM7</t>
+          <t>F#m</t>
         </is>
       </c>
       <c r="F167" s="0" t="inlineStr">
@@ -34621,7 +34620,7 @@
       </c>
       <c r="I167" s="0" t="inlineStr">
         <is>
-          <t>Eadd9</t>
+          <t>E</t>
         </is>
       </c>
       <c r="J167" s="0" t="inlineStr">
@@ -34651,7 +34650,7 @@
       </c>
       <c r="O167" s="0" t="inlineStr">
         <is>
-          <t>Eadd9</t>
+          <t>E</t>
         </is>
       </c>
       <c r="P167" s="0" t="inlineStr">
@@ -34671,12 +34670,12 @@
       </c>
       <c r="S167" s="0" t="inlineStr">
         <is>
-          <t>BM7</t>
+          <t>B</t>
         </is>
       </c>
       <c r="T167" s="0" t="inlineStr">
         <is>
-          <t>Eadd9</t>
+          <t>E</t>
         </is>
       </c>
       <c r="U167" s="0" t="inlineStr">
@@ -34823,7 +34822,7 @@
       </c>
       <c r="E169" s="0" t="inlineStr">
         <is>
-          <t>Emadd9</t>
+          <t>Em</t>
         </is>
       </c>
       <c r="F169" s="0" t="inlineStr">
@@ -34838,17 +34837,17 @@
       </c>
       <c r="H169" s="0" t="inlineStr">
         <is>
-          <t>C#m7b5</t>
+          <t>Em6</t>
         </is>
       </c>
       <c r="I169" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J169" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="K169" s="0" t="inlineStr">
@@ -34863,7 +34862,7 @@
       </c>
       <c r="M169" s="0" t="inlineStr">
         <is>
-          <t>Emadd9</t>
+          <t>Em</t>
         </is>
       </c>
       <c r="N169" s="0" t="inlineStr">
@@ -34878,17 +34877,17 @@
       </c>
       <c r="P169" s="0" t="inlineStr">
         <is>
-          <t>C#m7b5</t>
+          <t>Em6</t>
         </is>
       </c>
       <c r="Q169" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="R169" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="S169" s="0" t="inlineStr">
@@ -34938,12 +34937,12 @@
       </c>
       <c r="E170" s="0" t="inlineStr">
         <is>
-          <t>Emadd9</t>
+          <t>Em7</t>
         </is>
       </c>
       <c r="F170" s="0" t="inlineStr">
         <is>
-          <t>D#dim</t>
+          <t>D#m7b5</t>
         </is>
       </c>
       <c r="G170" s="0" t="inlineStr">
@@ -34953,17 +34952,17 @@
       </c>
       <c r="H170" s="0" t="inlineStr">
         <is>
-          <t>C#m7b5</t>
+          <t>Em6</t>
         </is>
       </c>
       <c r="I170" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>Cadd9</t>
         </is>
       </c>
       <c r="J170" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="K170" s="0" t="inlineStr">
@@ -34978,12 +34977,12 @@
       </c>
       <c r="M170" s="0" t="inlineStr">
         <is>
-          <t>Emadd9</t>
+          <t>Em7</t>
         </is>
       </c>
       <c r="N170" s="0" t="inlineStr">
         <is>
-          <t>D#dim</t>
+          <t>D#m7b5</t>
         </is>
       </c>
       <c r="O170" s="0" t="inlineStr">
@@ -34993,17 +34992,17 @@
       </c>
       <c r="P170" s="0" t="inlineStr">
         <is>
-          <t>C#m7b5</t>
+          <t>Em6</t>
         </is>
       </c>
       <c r="Q170" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>Cadd9</t>
         </is>
       </c>
       <c r="R170" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="S170" s="0" t="inlineStr">
@@ -35018,7 +35017,7 @@
       </c>
       <c r="U170" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>Cadd9</t>
         </is>
       </c>
       <c r="V170" s="0" t="inlineStr">
@@ -35068,77 +35067,77 @@
       </c>
       <c r="H171" s="0" t="inlineStr">
         <is>
-          <t>C#m7b5</t>
+          <t>Em6</t>
         </is>
       </c>
       <c r="I171" s="0" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J171" s="0" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="K171" s="0" t="inlineStr">
+        <is>
+          <t>A#dim</t>
+        </is>
+      </c>
+      <c r="L171" s="0" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="M171" s="0" t="inlineStr">
+        <is>
+          <t>Em</t>
+        </is>
+      </c>
+      <c r="N171" s="0" t="inlineStr">
+        <is>
+          <t>D#dim</t>
+        </is>
+      </c>
+      <c r="O171" s="0" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="P171" s="0" t="inlineStr">
+        <is>
+          <t>Em6</t>
+        </is>
+      </c>
+      <c r="Q171" s="0" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="R171" s="0" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="S171" s="0" t="inlineStr">
+        <is>
+          <t>A#dim</t>
+        </is>
+      </c>
+      <c r="T171" s="0" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="U171" s="0" t="inlineStr">
+        <is>
           <t>CM7</t>
         </is>
       </c>
-      <c r="J171" s="0" t="inlineStr">
-        <is>
-          <t>GM7</t>
-        </is>
-      </c>
-      <c r="K171" s="0" t="inlineStr">
-        <is>
-          <t>A#dim</t>
-        </is>
-      </c>
-      <c r="L171" s="0" t="inlineStr">
-        <is>
-          <t>B7</t>
-        </is>
-      </c>
-      <c r="M171" s="0" t="inlineStr">
-        <is>
-          <t>Em</t>
-        </is>
-      </c>
-      <c r="N171" s="0" t="inlineStr">
-        <is>
-          <t>D#dim</t>
-        </is>
-      </c>
-      <c r="O171" s="0" t="inlineStr">
-        <is>
-          <t>D7</t>
-        </is>
-      </c>
-      <c r="P171" s="0" t="inlineStr">
-        <is>
-          <t>C#m7b5</t>
-        </is>
-      </c>
-      <c r="Q171" s="0" t="inlineStr">
-        <is>
-          <t>CM7</t>
-        </is>
-      </c>
-      <c r="R171" s="0" t="inlineStr">
-        <is>
-          <t>GM7</t>
-        </is>
-      </c>
-      <c r="S171" s="0" t="inlineStr">
-        <is>
-          <t>A#dim</t>
-        </is>
-      </c>
-      <c r="T171" s="0" t="inlineStr">
-        <is>
-          <t>B7</t>
-        </is>
-      </c>
-      <c r="U171" s="0" t="inlineStr">
-        <is>
-          <t>CM7</t>
-        </is>
-      </c>
       <c r="V171" s="0" t="inlineStr">
         <is>
-          <t>Bm7</t>
+          <t>D6</t>
         </is>
       </c>
       <c r="W171" s="0">
@@ -35168,7 +35167,7 @@
       </c>
       <c r="E172" s="0" t="inlineStr">
         <is>
-          <t>Emadd9</t>
+          <t>Em</t>
         </is>
       </c>
       <c r="F172" s="0" t="inlineStr">
@@ -35183,17 +35182,17 @@
       </c>
       <c r="H172" s="0" t="inlineStr">
         <is>
-          <t>C#m7b5</t>
+          <t>Em6</t>
         </is>
       </c>
       <c r="I172" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J172" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="K172" s="0" t="inlineStr">
@@ -35208,7 +35207,7 @@
       </c>
       <c r="M172" s="0" t="inlineStr">
         <is>
-          <t>Emadd9</t>
+          <t>Em</t>
         </is>
       </c>
       <c r="N172" s="0" t="inlineStr">
@@ -35223,17 +35222,17 @@
       </c>
       <c r="P172" s="0" t="inlineStr">
         <is>
-          <t>C#m7b5</t>
+          <t>Em6</t>
         </is>
       </c>
       <c r="Q172" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="R172" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="S172" s="0" t="inlineStr">
@@ -35380,7 +35379,7 @@
       </c>
       <c r="C174" s="0" t="inlineStr">
         <is>
-          <t>Emadd9</t>
+          <t>Em7</t>
         </is>
       </c>
       <c r="D174" s="0" t="inlineStr">
@@ -35395,12 +35394,12 @@
       </c>
       <c r="F174" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="G174" s="0" t="inlineStr">
         <is>
-          <t>C#m7b5</t>
+          <t>Em6</t>
         </is>
       </c>
       <c r="H174" s="0" t="inlineStr">
@@ -35415,7 +35414,7 @@
       </c>
       <c r="J174" s="0" t="inlineStr">
         <is>
-          <t>Emadd9</t>
+          <t>Em</t>
         </is>
       </c>
       <c r="K174" s="0" t="inlineStr">
@@ -35440,12 +35439,12 @@
       </c>
       <c r="O174" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="P174" s="0" t="inlineStr">
         <is>
-          <t>C#m7b5</t>
+          <t>Em6</t>
         </is>
       </c>
       <c r="Q174" s="0" t="inlineStr">
@@ -35460,7 +35459,7 @@
       </c>
       <c r="S174" s="0" t="inlineStr">
         <is>
-          <t>Emadd9</t>
+          <t>Em</t>
         </is>
       </c>
       <c r="T174" s="0" t="inlineStr">
@@ -35510,12 +35509,12 @@
       </c>
       <c r="F175" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="G175" s="0" t="inlineStr">
         <is>
-          <t>C#m7b5</t>
+          <t>Em6</t>
         </is>
       </c>
       <c r="H175" s="0" t="inlineStr">
@@ -35555,12 +35554,12 @@
       </c>
       <c r="O175" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="P175" s="0" t="inlineStr">
         <is>
-          <t>C#m7b5</t>
+          <t>Em6</t>
         </is>
       </c>
       <c r="Q175" s="0" t="inlineStr">
@@ -35625,12 +35624,12 @@
       </c>
       <c r="F176" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="G176" s="0" t="inlineStr">
         <is>
-          <t>C#m7b5</t>
+          <t>Em6</t>
         </is>
       </c>
       <c r="H176" s="0" t="inlineStr">
@@ -35670,12 +35669,12 @@
       </c>
       <c r="O176" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="P176" s="0" t="inlineStr">
         <is>
-          <t>C#m7b5</t>
+          <t>Em6</t>
         </is>
       </c>
       <c r="Q176" s="0" t="inlineStr">
@@ -35740,12 +35739,12 @@
       </c>
       <c r="F177" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="G177" s="0" t="inlineStr">
         <is>
-          <t>C#m7b5</t>
+          <t>Em6</t>
         </is>
       </c>
       <c r="H177" s="0" t="inlineStr">
@@ -35760,7 +35759,7 @@
       </c>
       <c r="J177" s="0" t="inlineStr">
         <is>
-          <t>Emadd9</t>
+          <t>Em</t>
         </is>
       </c>
       <c r="K177" s="0" t="inlineStr">
@@ -35785,12 +35784,12 @@
       </c>
       <c r="O177" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="P177" s="0" t="inlineStr">
         <is>
-          <t>C#m7b5</t>
+          <t>Em6</t>
         </is>
       </c>
       <c r="Q177" s="0" t="inlineStr">
@@ -35805,7 +35804,7 @@
       </c>
       <c r="S177" s="0" t="inlineStr">
         <is>
-          <t>Emadd9</t>
+          <t>Em</t>
         </is>
       </c>
       <c r="T177" s="0" t="inlineStr">
@@ -35947,12 +35946,12 @@
       </c>
       <c r="C179" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D179" s="0" t="inlineStr">
         <is>
-          <t>CmM7</t>
+          <t>Cm</t>
         </is>
       </c>
       <c r="E179" s="0" t="inlineStr">
@@ -36007,7 +36006,7 @@
       </c>
       <c r="O179" s="0" t="inlineStr">
         <is>
-          <t>FM7</t>
+          <t>F</t>
         </is>
       </c>
       <c r="P179" s="0" t="inlineStr">
@@ -36017,7 +36016,7 @@
       </c>
       <c r="Q179" s="0" t="inlineStr">
         <is>
-          <t>FM7</t>
+          <t>F</t>
         </is>
       </c>
       <c r="R179" s="0" t="inlineStr">
@@ -36027,7 +36026,7 @@
       </c>
       <c r="S179" s="0" t="inlineStr">
         <is>
-          <t>FM7</t>
+          <t>F</t>
         </is>
       </c>
       <c r="T179" s="0" t="inlineStr">
@@ -36062,12 +36061,12 @@
       </c>
       <c r="C180" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D180" s="0" t="inlineStr">
         <is>
-          <t>CmM7</t>
+          <t>Cm</t>
         </is>
       </c>
       <c r="E180" s="0" t="inlineStr">
@@ -36077,7 +36076,7 @@
       </c>
       <c r="F180" s="0" t="inlineStr">
         <is>
-          <t>A#M7</t>
+          <t>A#add9</t>
         </is>
       </c>
       <c r="G180" s="0" t="inlineStr">
@@ -36107,7 +36106,7 @@
       </c>
       <c r="L180" s="0" t="inlineStr">
         <is>
-          <t>A#M7</t>
+          <t>A#add9</t>
         </is>
       </c>
       <c r="M180" s="0" t="inlineStr">
@@ -36127,7 +36126,7 @@
       </c>
       <c r="P180" s="0" t="inlineStr">
         <is>
-          <t>A#M7</t>
+          <t>A#add9</t>
         </is>
       </c>
       <c r="Q180" s="0" t="inlineStr">
@@ -36137,7 +36136,7 @@
       </c>
       <c r="R180" s="0" t="inlineStr">
         <is>
-          <t>A#M7</t>
+          <t>A#</t>
         </is>
       </c>
       <c r="S180" s="0" t="inlineStr">
@@ -36177,12 +36176,12 @@
       </c>
       <c r="C181" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D181" s="0" t="inlineStr">
         <is>
-          <t>CmM7</t>
+          <t>Cm</t>
         </is>
       </c>
       <c r="E181" s="0" t="inlineStr">
@@ -36197,7 +36196,7 @@
       </c>
       <c r="G181" s="0" t="inlineStr">
         <is>
-          <t>FM7</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H181" s="0" t="inlineStr">
@@ -36227,7 +36226,7 @@
       </c>
       <c r="M181" s="0" t="inlineStr">
         <is>
-          <t>FM7</t>
+          <t>F</t>
         </is>
       </c>
       <c r="N181" s="0" t="inlineStr">
@@ -36237,7 +36236,7 @@
       </c>
       <c r="O181" s="0" t="inlineStr">
         <is>
-          <t>FM7</t>
+          <t>F</t>
         </is>
       </c>
       <c r="P181" s="0" t="inlineStr">
@@ -36247,7 +36246,7 @@
       </c>
       <c r="Q181" s="0" t="inlineStr">
         <is>
-          <t>FM7</t>
+          <t>F</t>
         </is>
       </c>
       <c r="R181" s="0" t="inlineStr">
@@ -36257,7 +36256,7 @@
       </c>
       <c r="S181" s="0" t="inlineStr">
         <is>
-          <t>FM7</t>
+          <t>F</t>
         </is>
       </c>
       <c r="T181" s="0" t="inlineStr">
@@ -36292,12 +36291,12 @@
       </c>
       <c r="C182" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D182" s="0" t="inlineStr">
         <is>
-          <t>CmM7</t>
+          <t>Cm</t>
         </is>
       </c>
       <c r="E182" s="0" t="inlineStr">
@@ -36514,12 +36513,12 @@
       </c>
       <c r="C184" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D184" s="0" t="inlineStr">
         <is>
-          <t>Emadd9</t>
+          <t>Em</t>
         </is>
       </c>
       <c r="E184" s="0" t="inlineStr">
@@ -36529,7 +36528,7 @@
       </c>
       <c r="F184" s="0" t="inlineStr">
         <is>
-          <t>FM7</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G184" s="0" t="inlineStr">
@@ -36544,7 +36543,7 @@
       </c>
       <c r="I184" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J184" s="0" t="inlineStr">
@@ -36564,12 +36563,12 @@
       </c>
       <c r="M184" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N184" s="0" t="inlineStr">
         <is>
-          <t>Emadd9</t>
+          <t>Em</t>
         </is>
       </c>
       <c r="O184" s="0" t="inlineStr">
@@ -36579,7 +36578,7 @@
       </c>
       <c r="P184" s="0" t="inlineStr">
         <is>
-          <t>FM7</t>
+          <t>F</t>
         </is>
       </c>
       <c r="Q184" s="0" t="inlineStr">
@@ -36594,7 +36593,7 @@
       </c>
       <c r="S184" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="T184" s="0" t="inlineStr">
@@ -36604,7 +36603,7 @@
       </c>
       <c r="U184" s="0" t="inlineStr">
         <is>
-          <t>FM7</t>
+          <t>F</t>
         </is>
       </c>
       <c r="V184" s="0" t="inlineStr">
@@ -36629,7 +36628,7 @@
       </c>
       <c r="C185" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D185" s="0" t="inlineStr">
@@ -36659,7 +36658,7 @@
       </c>
       <c r="I185" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J185" s="0" t="inlineStr">
@@ -36679,7 +36678,7 @@
       </c>
       <c r="M185" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N185" s="0" t="inlineStr">
@@ -36709,7 +36708,7 @@
       </c>
       <c r="S185" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="T185" s="0" t="inlineStr">
@@ -36744,7 +36743,7 @@
       </c>
       <c r="C186" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D186" s="0" t="inlineStr">
@@ -36759,7 +36758,7 @@
       </c>
       <c r="F186" s="0" t="inlineStr">
         <is>
-          <t>FM7</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G186" s="0" t="inlineStr">
@@ -36774,7 +36773,7 @@
       </c>
       <c r="I186" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J186" s="0" t="inlineStr">
@@ -36784,7 +36783,7 @@
       </c>
       <c r="K186" s="0" t="inlineStr">
         <is>
-          <t>FM7</t>
+          <t>F</t>
         </is>
       </c>
       <c r="L186" s="0" t="inlineStr">
@@ -36794,7 +36793,7 @@
       </c>
       <c r="M186" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N186" s="0" t="inlineStr">
@@ -36809,7 +36808,7 @@
       </c>
       <c r="P186" s="0" t="inlineStr">
         <is>
-          <t>FM7</t>
+          <t>F</t>
         </is>
       </c>
       <c r="Q186" s="0" t="inlineStr">
@@ -36824,7 +36823,7 @@
       </c>
       <c r="S186" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="T186" s="0" t="inlineStr">
@@ -36834,7 +36833,7 @@
       </c>
       <c r="U186" s="0" t="inlineStr">
         <is>
-          <t>FM7</t>
+          <t>F</t>
         </is>
       </c>
       <c r="V186" s="0" t="inlineStr">
@@ -36859,12 +36858,12 @@
       </c>
       <c r="C187" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D187" s="0" t="inlineStr">
         <is>
-          <t>Emadd9</t>
+          <t>Em</t>
         </is>
       </c>
       <c r="E187" s="0" t="inlineStr">
@@ -36889,7 +36888,7 @@
       </c>
       <c r="I187" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J187" s="0" t="inlineStr">
@@ -36909,12 +36908,12 @@
       </c>
       <c r="M187" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N187" s="0" t="inlineStr">
         <is>
-          <t>Emadd9</t>
+          <t>Em</t>
         </is>
       </c>
       <c r="O187" s="0" t="inlineStr">
@@ -36939,7 +36938,7 @@
       </c>
       <c r="S187" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="T187" s="0" t="inlineStr">
@@ -37086,12 +37085,12 @@
       </c>
       <c r="D189" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>Cadd9</t>
         </is>
       </c>
       <c r="E189" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F189" s="0" t="inlineStr">
@@ -37101,12 +37100,12 @@
       </c>
       <c r="G189" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>Cadd9</t>
         </is>
       </c>
       <c r="H189" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="I189" s="0" t="inlineStr">
@@ -37116,12 +37115,12 @@
       </c>
       <c r="J189" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>Cadd9</t>
         </is>
       </c>
       <c r="K189" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="L189" s="0" t="inlineStr">
@@ -37131,12 +37130,12 @@
       </c>
       <c r="M189" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>Cadd9</t>
         </is>
       </c>
       <c r="N189" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="O189" s="0" t="inlineStr">
@@ -37146,12 +37145,12 @@
       </c>
       <c r="P189" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>Cadd9</t>
         </is>
       </c>
       <c r="Q189" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="R189" s="0" t="inlineStr">
@@ -37161,12 +37160,12 @@
       </c>
       <c r="S189" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>Cadd9</t>
         </is>
       </c>
       <c r="T189" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="U189" s="0" t="inlineStr">
@@ -37176,7 +37175,7 @@
       </c>
       <c r="V189" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>Cadd9</t>
         </is>
       </c>
       <c r="W189" s="0">
@@ -37206,7 +37205,7 @@
       </c>
       <c r="E190" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F190" s="0" t="inlineStr">
@@ -37221,7 +37220,7 @@
       </c>
       <c r="H190" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="I190" s="0" t="inlineStr">
@@ -37236,7 +37235,7 @@
       </c>
       <c r="K190" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="L190" s="0" t="inlineStr">
@@ -37251,7 +37250,7 @@
       </c>
       <c r="N190" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="O190" s="0" t="inlineStr">
@@ -37266,7 +37265,7 @@
       </c>
       <c r="Q190" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="R190" s="0" t="inlineStr">
@@ -37281,7 +37280,7 @@
       </c>
       <c r="T190" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="U190" s="0" t="inlineStr">
@@ -37321,7 +37320,7 @@
       </c>
       <c r="E191" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F191" s="0" t="inlineStr">
@@ -37336,7 +37335,7 @@
       </c>
       <c r="H191" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="I191" s="0" t="inlineStr">
@@ -37351,7 +37350,7 @@
       </c>
       <c r="K191" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="L191" s="0" t="inlineStr">
@@ -37366,7 +37365,7 @@
       </c>
       <c r="N191" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="O191" s="0" t="inlineStr">
@@ -37381,7 +37380,7 @@
       </c>
       <c r="Q191" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="R191" s="0" t="inlineStr">
@@ -37396,7 +37395,7 @@
       </c>
       <c r="T191" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="U191" s="0" t="inlineStr">
@@ -37431,12 +37430,12 @@
       </c>
       <c r="D192" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E192" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F192" s="0" t="inlineStr">
@@ -37446,12 +37445,12 @@
       </c>
       <c r="G192" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H192" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="I192" s="0" t="inlineStr">
@@ -37461,12 +37460,12 @@
       </c>
       <c r="J192" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K192" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="L192" s="0" t="inlineStr">
@@ -37476,12 +37475,12 @@
       </c>
       <c r="M192" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N192" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="O192" s="0" t="inlineStr">
@@ -37491,12 +37490,12 @@
       </c>
       <c r="P192" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="Q192" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="R192" s="0" t="inlineStr">
@@ -37506,12 +37505,12 @@
       </c>
       <c r="S192" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="T192" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="U192" s="0" t="inlineStr">
@@ -37521,7 +37520,7 @@
       </c>
       <c r="V192" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="W192" s="0">
@@ -37663,7 +37662,7 @@
       </c>
       <c r="F194" s="0" t="inlineStr">
         <is>
-          <t>Aadd9</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G194" s="0" t="inlineStr">
@@ -37673,7 +37672,7 @@
       </c>
       <c r="H194" s="0" t="inlineStr">
         <is>
-          <t>Aadd9</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I194" s="0" t="inlineStr">
@@ -37693,17 +37692,17 @@
       </c>
       <c r="L194" s="0" t="inlineStr">
         <is>
-          <t>Eadd9</t>
+          <t>E</t>
         </is>
       </c>
       <c r="M194" s="0" t="inlineStr">
         <is>
-          <t>Asus4</t>
+          <t>Dadd9</t>
         </is>
       </c>
       <c r="N194" s="0" t="inlineStr">
         <is>
-          <t>Eadd9</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O194" s="0" t="inlineStr">
@@ -37713,7 +37712,7 @@
       </c>
       <c r="P194" s="0" t="inlineStr">
         <is>
-          <t>Eadd9</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Q194" s="0" t="inlineStr">
@@ -37733,12 +37732,12 @@
       </c>
       <c r="T194" s="0" t="inlineStr">
         <is>
-          <t>F#mM7</t>
+          <t>F#m</t>
         </is>
       </c>
       <c r="U194" s="0" t="inlineStr">
         <is>
-          <t>Eadd9</t>
+          <t>E</t>
         </is>
       </c>
       <c r="V194" s="0" t="inlineStr">
@@ -37813,7 +37812,7 @@
       </c>
       <c r="M195" s="0" t="inlineStr">
         <is>
-          <t>Asus4</t>
+          <t>Dadd9</t>
         </is>
       </c>
       <c r="N195" s="0" t="inlineStr">
@@ -37848,7 +37847,7 @@
       </c>
       <c r="T195" s="0" t="inlineStr">
         <is>
-          <t>F#mM7</t>
+          <t>F#m</t>
         </is>
       </c>
       <c r="U195" s="0" t="inlineStr">
@@ -37928,7 +37927,7 @@
       </c>
       <c r="M196" s="0" t="inlineStr">
         <is>
-          <t>Asus4</t>
+          <t>Dsus4</t>
         </is>
       </c>
       <c r="N196" s="0" t="inlineStr">
@@ -37963,7 +37962,7 @@
       </c>
       <c r="T196" s="0" t="inlineStr">
         <is>
-          <t>F#mM7</t>
+          <t>F#m</t>
         </is>
       </c>
       <c r="U196" s="0" t="inlineStr">
@@ -38033,22 +38032,22 @@
       </c>
       <c r="K197" s="0" t="inlineStr">
         <is>
-          <t>Eadd9</t>
+          <t>E</t>
         </is>
       </c>
       <c r="L197" s="0" t="inlineStr">
         <is>
-          <t>Eadd9</t>
+          <t>E</t>
         </is>
       </c>
       <c r="M197" s="0" t="inlineStr">
         <is>
-          <t>Asus4</t>
+          <t>Dadd9</t>
         </is>
       </c>
       <c r="N197" s="0" t="inlineStr">
         <is>
-          <t>Eadd9</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O197" s="0" t="inlineStr">
@@ -38058,12 +38057,12 @@
       </c>
       <c r="P197" s="0" t="inlineStr">
         <is>
-          <t>Eadd9</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Q197" s="0" t="inlineStr">
         <is>
-          <t>BmM7</t>
+          <t>Bm</t>
         </is>
       </c>
       <c r="R197" s="0" t="inlineStr">
@@ -38078,12 +38077,12 @@
       </c>
       <c r="T197" s="0" t="inlineStr">
         <is>
-          <t>F#mM7</t>
+          <t>F#m</t>
         </is>
       </c>
       <c r="U197" s="0" t="inlineStr">
         <is>
-          <t>Eadd9</t>
+          <t>E</t>
         </is>
       </c>
       <c r="V197" s="0" t="inlineStr">
@@ -38215,32 +38214,32 @@
       </c>
       <c r="C199" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D199" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E199" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F199" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="G199" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H199" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>Cadd9</t>
         </is>
       </c>
       <c r="I199" s="0" t="inlineStr">
@@ -38250,42 +38249,42 @@
       </c>
       <c r="J199" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K199" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L199" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="M199" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="N199" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="O199" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="P199" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="Q199" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="R199" s="0" t="inlineStr">
@@ -38300,17 +38299,17 @@
       </c>
       <c r="T199" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>Cadd9</t>
         </is>
       </c>
       <c r="U199" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>Cadd9</t>
         </is>
       </c>
       <c r="V199" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="W199" s="0">
@@ -38330,27 +38329,27 @@
       </c>
       <c r="C200" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D200" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E200" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F200" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="G200" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H200" s="0" t="inlineStr">
@@ -38365,42 +38364,42 @@
       </c>
       <c r="J200" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K200" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L200" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="M200" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="N200" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="O200" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="P200" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="Q200" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="R200" s="0" t="inlineStr">
@@ -38425,7 +38424,7 @@
       </c>
       <c r="V200" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="W200" s="0">
@@ -38445,27 +38444,27 @@
       </c>
       <c r="C201" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D201" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E201" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F201" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="G201" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H201" s="0" t="inlineStr">
@@ -38475,47 +38474,47 @@
       </c>
       <c r="I201" s="0" t="inlineStr">
         <is>
-          <t>FM7</t>
+          <t>F</t>
         </is>
       </c>
       <c r="J201" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K201" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L201" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="M201" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="N201" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="O201" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="P201" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="Q201" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="R201" s="0" t="inlineStr">
@@ -38540,7 +38539,7 @@
       </c>
       <c r="V201" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="W201" s="0">
@@ -38560,32 +38559,32 @@
       </c>
       <c r="C202" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D202" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E202" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F202" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="G202" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H202" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I202" s="0" t="inlineStr">
@@ -38595,42 +38594,42 @@
       </c>
       <c r="J202" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K202" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L202" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="M202" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="N202" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="O202" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="P202" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="Q202" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="R202" s="0" t="inlineStr">
@@ -38645,17 +38644,17 @@
       </c>
       <c r="T202" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="U202" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>C</t>
         </is>
       </c>
       <c r="V202" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G</t>
         </is>
       </c>
       <c r="W202" s="0">
@@ -38670,7 +38669,7 @@
     <row r="204">
       <c r="B204" s="0" t="inlineStr">
         <is>
-          <t>cosine similarity matching harmonic 0.6-6 template scaled, normal distribution comb filter, stft mags none scaled, E2-D#6, select first</t>
+          <t>mean reassign</t>
         </is>
       </c>
     </row>
@@ -39366,7 +39365,7 @@
       </c>
       <c r="E211" s="0" t="inlineStr">
         <is>
-          <t>F#m7b5</t>
+          <t>Am6</t>
         </is>
       </c>
       <c r="F211" s="0" t="inlineStr">
@@ -39376,69 +39375,69 @@
       </c>
       <c r="G211" s="0" t="inlineStr">
         <is>
+          <t>Em7</t>
+        </is>
+      </c>
+      <c r="H211" s="0" t="inlineStr">
+        <is>
+          <t>EmM7</t>
+        </is>
+      </c>
+      <c r="I211" s="0" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
+      </c>
+      <c r="J211" s="0" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="K211" s="0" t="inlineStr">
+        <is>
           <t>Em</t>
         </is>
       </c>
-      <c r="H211" s="0" t="inlineStr">
+      <c r="L211" s="0" t="inlineStr">
+        <is>
+          <t>Bm7b5</t>
+        </is>
+      </c>
+      <c r="M211" s="0" t="inlineStr">
+        <is>
+          <t>E7</t>
+        </is>
+      </c>
+      <c r="N211" s="0" t="inlineStr">
+        <is>
+          <t>Am7</t>
+        </is>
+      </c>
+      <c r="O211" s="0" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="P211" s="0" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="Q211" s="0" t="inlineStr">
         <is>
           <t>Em</t>
         </is>
       </c>
-      <c r="I211" s="0" t="inlineStr">
-        <is>
-          <t>C7</t>
-        </is>
-      </c>
-      <c r="J211" s="0" t="inlineStr">
-        <is>
-          <t>B7</t>
-        </is>
-      </c>
-      <c r="K211" s="0" t="inlineStr">
-        <is>
-          <t>Em</t>
-        </is>
-      </c>
-      <c r="L211" s="0" t="inlineStr">
-        <is>
-          <t>Bdim</t>
-        </is>
-      </c>
-      <c r="M211" s="0" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="N211" s="0" t="inlineStr">
+      <c r="R211" s="0" t="inlineStr">
         <is>
           <t>Am7</t>
         </is>
       </c>
-      <c r="O211" s="0" t="inlineStr">
+      <c r="S211" s="0" t="inlineStr">
         <is>
           <t>D7</t>
         </is>
       </c>
-      <c r="P211" s="0" t="inlineStr">
-        <is>
-          <t>B7</t>
-        </is>
-      </c>
-      <c r="Q211" s="0" t="inlineStr">
-        <is>
-          <t>Em</t>
-        </is>
-      </c>
-      <c r="R211" s="0" t="inlineStr">
-        <is>
-          <t>Am7</t>
-        </is>
-      </c>
-      <c r="S211" s="0" t="inlineStr">
-        <is>
-          <t>D7</t>
-        </is>
-      </c>
       <c r="T211" s="0" t="inlineStr">
         <is>
           <t>G</t>
@@ -39446,7 +39445,7 @@
       </c>
       <c r="U211" s="0" t="inlineStr">
         <is>
-          <t>F#m7b5</t>
+          <t>Am6</t>
         </is>
       </c>
       <c r="V211" s="0" t="inlineStr">
@@ -39481,79 +39480,79 @@
       </c>
       <c r="E212" s="0" t="inlineStr">
         <is>
-          <t>F#m7b5</t>
+          <t>Am6</t>
         </is>
       </c>
       <c r="F212" s="0" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B7</t>
         </is>
       </c>
       <c r="G212" s="0" t="inlineStr">
         <is>
+          <t>Em7</t>
+        </is>
+      </c>
+      <c r="H212" s="0" t="inlineStr">
+        <is>
+          <t>EmM7</t>
+        </is>
+      </c>
+      <c r="I212" s="0" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
+      </c>
+      <c r="J212" s="0" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="K212" s="0" t="inlineStr">
+        <is>
           <t>Em</t>
         </is>
       </c>
-      <c r="H212" s="0" t="inlineStr">
-        <is>
-          <t>EmM7</t>
-        </is>
-      </c>
-      <c r="I212" s="0" t="inlineStr">
-        <is>
-          <t>C7</t>
-        </is>
-      </c>
-      <c r="J212" s="0" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="K212" s="0" t="inlineStr">
+      <c r="L212" s="0" t="inlineStr">
+        <is>
+          <t>Dm6</t>
+        </is>
+      </c>
+      <c r="M212" s="0" t="inlineStr">
+        <is>
+          <t>E7</t>
+        </is>
+      </c>
+      <c r="N212" s="0" t="inlineStr">
+        <is>
+          <t>Am7</t>
+        </is>
+      </c>
+      <c r="O212" s="0" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="P212" s="0" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="Q212" s="0" t="inlineStr">
         <is>
           <t>Em</t>
         </is>
       </c>
-      <c r="L212" s="0" t="inlineStr">
-        <is>
-          <t>Bdim</t>
-        </is>
-      </c>
-      <c r="M212" s="0" t="inlineStr">
-        <is>
-          <t>E7</t>
-        </is>
-      </c>
-      <c r="N212" s="0" t="inlineStr">
+      <c r="R212" s="0" t="inlineStr">
         <is>
           <t>Am7</t>
         </is>
       </c>
-      <c r="O212" s="0" t="inlineStr">
+      <c r="S212" s="0" t="inlineStr">
         <is>
           <t>D7</t>
         </is>
       </c>
-      <c r="P212" s="0" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q212" s="0" t="inlineStr">
-        <is>
-          <t>Em</t>
-        </is>
-      </c>
-      <c r="R212" s="0" t="inlineStr">
-        <is>
-          <t>Am7</t>
-        </is>
-      </c>
-      <c r="S212" s="0" t="inlineStr">
-        <is>
-          <t>D7</t>
-        </is>
-      </c>
       <c r="T212" s="0" t="inlineStr">
         <is>
           <t>G</t>
@@ -39561,12 +39560,12 @@
       </c>
       <c r="U212" s="0" t="inlineStr">
         <is>
-          <t>F#m7b5</t>
+          <t>Am6</t>
         </is>
       </c>
       <c r="V212" s="0" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B7</t>
         </is>
       </c>
       <c r="W212" s="0">
@@ -39596,7 +39595,7 @@
       </c>
       <c r="E213" s="0" t="inlineStr">
         <is>
-          <t>F#m7b5</t>
+          <t>Am6</t>
         </is>
       </c>
       <c r="F213" s="0" t="inlineStr">
@@ -39676,7 +39675,7 @@
       </c>
       <c r="U213" s="0" t="inlineStr">
         <is>
-          <t>F#m7b5</t>
+          <t>Am6</t>
         </is>
       </c>
       <c r="V213" s="0" t="inlineStr">
@@ -39711,7 +39710,7 @@
       </c>
       <c r="E214" s="0" t="inlineStr">
         <is>
-          <t>F#m7b5</t>
+          <t>Am6</t>
         </is>
       </c>
       <c r="F214" s="0" t="inlineStr">
@@ -39721,69 +39720,69 @@
       </c>
       <c r="G214" s="0" t="inlineStr">
         <is>
+          <t>Em7</t>
+        </is>
+      </c>
+      <c r="H214" s="0" t="inlineStr">
+        <is>
+          <t>EmM7</t>
+        </is>
+      </c>
+      <c r="I214" s="0" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
+      </c>
+      <c r="J214" s="0" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="K214" s="0" t="inlineStr">
+        <is>
           <t>Em</t>
         </is>
       </c>
-      <c r="H214" s="0" t="inlineStr">
-        <is>
-          <t>EmM7</t>
-        </is>
-      </c>
-      <c r="I214" s="0" t="inlineStr">
-        <is>
-          <t>C7</t>
-        </is>
-      </c>
-      <c r="J214" s="0" t="inlineStr">
+      <c r="L214" s="0" t="inlineStr">
+        <is>
+          <t>Bdim</t>
+        </is>
+      </c>
+      <c r="M214" s="0" t="inlineStr">
+        <is>
+          <t>E7</t>
+        </is>
+      </c>
+      <c r="N214" s="0" t="inlineStr">
+        <is>
+          <t>Am7</t>
+        </is>
+      </c>
+      <c r="O214" s="0" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="P214" s="0" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="K214" s="0" t="inlineStr">
+      <c r="Q214" s="0" t="inlineStr">
         <is>
           <t>Em</t>
         </is>
       </c>
-      <c r="L214" s="0" t="inlineStr">
-        <is>
-          <t>Bdim</t>
-        </is>
-      </c>
-      <c r="M214" s="0" t="inlineStr">
-        <is>
-          <t>E7</t>
-        </is>
-      </c>
-      <c r="N214" s="0" t="inlineStr">
+      <c r="R214" s="0" t="inlineStr">
         <is>
           <t>Am7</t>
         </is>
       </c>
-      <c r="O214" s="0" t="inlineStr">
+      <c r="S214" s="0" t="inlineStr">
         <is>
           <t>D7</t>
         </is>
       </c>
-      <c r="P214" s="0" t="inlineStr">
-        <is>
-          <t>B7</t>
-        </is>
-      </c>
-      <c r="Q214" s="0" t="inlineStr">
-        <is>
-          <t>Em</t>
-        </is>
-      </c>
-      <c r="R214" s="0" t="inlineStr">
-        <is>
-          <t>Am7</t>
-        </is>
-      </c>
-      <c r="S214" s="0" t="inlineStr">
-        <is>
-          <t>D7</t>
-        </is>
-      </c>
       <c r="T214" s="0" t="inlineStr">
         <is>
           <t>G</t>
@@ -39791,7 +39790,7 @@
       </c>
       <c r="U214" s="0" t="inlineStr">
         <is>
-          <t>F#m7b5</t>
+          <t>Am6</t>
         </is>
       </c>
       <c r="V214" s="0" t="inlineStr">
@@ -39923,97 +39922,97 @@
       </c>
       <c r="C216" s="0" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D216" s="0" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E216" s="0" t="inlineStr">
+        <is>
+          <t>Dm</t>
+        </is>
+      </c>
+      <c r="F216" s="0" t="inlineStr">
+        <is>
+          <t>Bm7b5</t>
+        </is>
+      </c>
+      <c r="G216" s="0" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="H216" s="0" t="inlineStr">
+        <is>
+          <t>Am7</t>
+        </is>
+      </c>
+      <c r="I216" s="0" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="J216" s="0" t="inlineStr">
+        <is>
+          <t>Dm7</t>
+        </is>
+      </c>
+      <c r="K216" s="0" t="inlineStr">
+        <is>
+          <t>G7</t>
+        </is>
+      </c>
+      <c r="L216" s="0" t="inlineStr">
+        <is>
+          <t>Gm7</t>
+        </is>
+      </c>
+      <c r="M216" s="0" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
+      </c>
+      <c r="N216" s="0" t="inlineStr">
+        <is>
           <t>FM7</t>
         </is>
       </c>
-      <c r="D216" s="0" t="inlineStr">
+      <c r="O216" s="0" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P216" s="0" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="Q216" s="0" t="inlineStr">
+        <is>
+          <t>Am</t>
+        </is>
+      </c>
+      <c r="R216" s="0" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="S216" s="0" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E216" s="0" t="inlineStr">
+      <c r="T216" s="0" t="inlineStr">
         <is>
           <t>Dm</t>
         </is>
       </c>
-      <c r="F216" s="0" t="inlineStr">
-        <is>
-          <t>Bdim</t>
-        </is>
-      </c>
-      <c r="G216" s="0" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="H216" s="0" t="inlineStr">
-        <is>
-          <t>Am7</t>
-        </is>
-      </c>
-      <c r="I216" s="0" t="inlineStr">
-        <is>
-          <t>D7</t>
-        </is>
-      </c>
-      <c r="J216" s="0" t="inlineStr">
-        <is>
-          <t>Dm7</t>
-        </is>
-      </c>
-      <c r="K216" s="0" t="inlineStr">
-        <is>
-          <t>G7</t>
-        </is>
-      </c>
-      <c r="L216" s="0" t="inlineStr">
-        <is>
-          <t>Gm7</t>
-        </is>
-      </c>
-      <c r="M216" s="0" t="inlineStr">
-        <is>
-          <t>C7</t>
-        </is>
-      </c>
-      <c r="N216" s="0" t="inlineStr">
-        <is>
-          <t>FM7</t>
-        </is>
-      </c>
-      <c r="O216" s="0" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="P216" s="0" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="Q216" s="0" t="inlineStr">
-        <is>
-          <t>Am</t>
-        </is>
-      </c>
-      <c r="R216" s="0" t="inlineStr">
-        <is>
-          <t>FM7</t>
-        </is>
-      </c>
-      <c r="S216" s="0" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="T216" s="0" t="inlineStr">
-        <is>
-          <t>Dm</t>
-        </is>
-      </c>
       <c r="U216" s="0" t="inlineStr">
         <is>
-          <t>Bdim</t>
+          <t>Bm7b5</t>
         </is>
       </c>
       <c r="V216" s="0" t="inlineStr">
@@ -40053,7 +40052,7 @@
       </c>
       <c r="F217" s="0" t="inlineStr">
         <is>
-          <t>Bdim</t>
+          <t>Bm7b5</t>
         </is>
       </c>
       <c r="G217" s="0" t="inlineStr">
@@ -40128,7 +40127,7 @@
       </c>
       <c r="U217" s="0" t="inlineStr">
         <is>
-          <t>Bdim</t>
+          <t>Bm7b5</t>
         </is>
       </c>
       <c r="V217" s="0" t="inlineStr">
@@ -40188,7 +40187,7 @@
       </c>
       <c r="J218" s="0" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Dm7</t>
         </is>
       </c>
       <c r="K218" s="0" t="inlineStr">
@@ -40580,7 +40579,7 @@
       </c>
       <c r="U221" s="0" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G7</t>
         </is>
       </c>
       <c r="V221" s="0" t="inlineStr">
@@ -40610,7 +40609,7 @@
       </c>
       <c r="D222" s="0" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B7</t>
         </is>
       </c>
       <c r="E222" s="0" t="inlineStr">
@@ -40640,7 +40639,7 @@
       </c>
       <c r="J222" s="0" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B7</t>
         </is>
       </c>
       <c r="K222" s="0" t="inlineStr">
@@ -40845,79 +40844,79 @@
       </c>
       <c r="E224" s="0" t="inlineStr">
         <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F224" s="0" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G224" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H224" s="0" t="inlineStr">
+        <is>
+          <t>C#m7</t>
+        </is>
+      </c>
+      <c r="I224" s="0" t="inlineStr">
+        <is>
+          <t>F#m7</t>
+        </is>
+      </c>
+      <c r="J224" s="0" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="K224" s="0" t="inlineStr">
+        <is>
           <t>Bsus4</t>
         </is>
       </c>
-      <c r="F224" s="0" t="inlineStr">
+      <c r="L224" s="0" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="G224" s="0" t="inlineStr">
+      <c r="M224" s="0" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="H224" s="0" t="inlineStr">
-        <is>
-          <t>C#m7</t>
-        </is>
-      </c>
-      <c r="I224" s="0" t="inlineStr">
+      <c r="N224" s="0" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="O224" s="0" t="inlineStr">
         <is>
           <t>F#m7</t>
         </is>
       </c>
-      <c r="J224" s="0" t="inlineStr">
-        <is>
-          <t>B7</t>
-        </is>
-      </c>
-      <c r="K224" s="0" t="inlineStr">
-        <is>
-          <t>Bsus4</t>
-        </is>
-      </c>
-      <c r="L224" s="0" t="inlineStr">
+      <c r="P224" s="0" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="M224" s="0" t="inlineStr">
+      <c r="Q224" s="0" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="N224" s="0" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="O224" s="0" t="inlineStr">
+      <c r="R224" s="0" t="inlineStr">
         <is>
           <t>F#m7</t>
         </is>
       </c>
-      <c r="P224" s="0" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="Q224" s="0" t="inlineStr">
+      <c r="S224" s="0" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="R224" s="0" t="inlineStr">
-        <is>
-          <t>F#m7</t>
-        </is>
-      </c>
-      <c r="S224" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
       <c r="T224" s="0" t="inlineStr">
         <is>
           <t>D</t>
@@ -40925,7 +40924,7 @@
       </c>
       <c r="U224" s="0" t="inlineStr">
         <is>
-          <t>GM7</t>
+          <t>G7</t>
         </is>
       </c>
       <c r="V224" s="0" t="inlineStr">
@@ -41062,7 +41061,7 @@
       </c>
       <c r="D226" s="0" t="inlineStr">
         <is>
-          <t>FM7</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E226" s="0" t="inlineStr">
@@ -41077,7 +41076,7 @@
       </c>
       <c r="G226" s="0" t="inlineStr">
         <is>
-          <t>Am7b5</t>
+          <t>Cm6</t>
         </is>
       </c>
       <c r="H226" s="0" t="inlineStr">
@@ -41107,7 +41106,7 @@
       </c>
       <c r="M226" s="0" t="inlineStr">
         <is>
-          <t>FM7</t>
+          <t>F</t>
         </is>
       </c>
       <c r="N226" s="0" t="inlineStr">
@@ -41122,7 +41121,7 @@
       </c>
       <c r="P226" s="0" t="inlineStr">
         <is>
-          <t>Am7b5</t>
+          <t>Cm6</t>
         </is>
       </c>
       <c r="Q226" s="0" t="inlineStr">
@@ -41147,7 +41146,7 @@
       </c>
       <c r="U226" s="0" t="inlineStr">
         <is>
-          <t>Bm</t>
+          <t>Bm7</t>
         </is>
       </c>
       <c r="V226" s="0" t="inlineStr">
@@ -41192,7 +41191,7 @@
       </c>
       <c r="G227" s="0" t="inlineStr">
         <is>
-          <t>Am7b5</t>
+          <t>Cm6</t>
         </is>
       </c>
       <c r="H227" s="0" t="inlineStr">
@@ -41237,7 +41236,7 @@
       </c>
       <c r="P227" s="0" t="inlineStr">
         <is>
-          <t>Am7b5</t>
+          <t>Cm6</t>
         </is>
       </c>
       <c r="Q227" s="0" t="inlineStr">
@@ -41262,7 +41261,7 @@
       </c>
       <c r="U227" s="0" t="inlineStr">
         <is>
-          <t>Bm</t>
+          <t>Bm7</t>
         </is>
       </c>
       <c r="V227" s="0" t="inlineStr">
@@ -41287,7 +41286,7 @@
       </c>
       <c r="C228" s="0" t="inlineStr">
         <is>
-          <t>D#sus4</t>
+          <t>D#</t>
         </is>
       </c>
       <c r="D228" s="0" t="inlineStr">
@@ -41307,7 +41306,7 @@
       </c>
       <c r="G228" s="0" t="inlineStr">
         <is>
-          <t>Am7b5</t>
+          <t>Cm6</t>
         </is>
       </c>
       <c r="H228" s="0" t="inlineStr">
@@ -41352,7 +41351,7 @@
       </c>
       <c r="P228" s="0" t="inlineStr">
         <is>
-          <t>Am7b5</t>
+          <t>Cm6</t>
         </is>
       </c>
       <c r="Q228" s="0" t="inlineStr">
@@ -41407,7 +41406,7 @@
       </c>
       <c r="D229" s="0" t="inlineStr">
         <is>
-          <t>C#aug</t>
+          <t>Faug</t>
         </is>
       </c>
       <c r="E229" s="0" t="inlineStr">
@@ -41422,7 +41421,7 @@
       </c>
       <c r="G229" s="0" t="inlineStr">
         <is>
-          <t>Am7b5</t>
+          <t>Cm6</t>
         </is>
       </c>
       <c r="H229" s="0" t="inlineStr">
@@ -41452,7 +41451,7 @@
       </c>
       <c r="M229" s="0" t="inlineStr">
         <is>
-          <t>C#aug</t>
+          <t>Faug</t>
         </is>
       </c>
       <c r="N229" s="0" t="inlineStr">
@@ -41467,7 +41466,7 @@
       </c>
       <c r="P229" s="0" t="inlineStr">
         <is>
-          <t>Am7b5</t>
+          <t>Cm6</t>
         </is>
       </c>
       <c r="Q229" s="0" t="inlineStr">
@@ -41759,7 +41758,7 @@
       </c>
       <c r="G232" s="0" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B7</t>
         </is>
       </c>
       <c r="H232" s="0" t="inlineStr">
@@ -41784,7 +41783,7 @@
       </c>
       <c r="L232" s="0" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B7</t>
         </is>
       </c>
       <c r="M232" s="0" t="inlineStr">
@@ -41794,7 +41793,7 @@
       </c>
       <c r="N232" s="0" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B7</t>
         </is>
       </c>
       <c r="O232" s="0" t="inlineStr">
@@ -41809,7 +41808,7 @@
       </c>
       <c r="Q232" s="0" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B7</t>
         </is>
       </c>
       <c r="R232" s="0" t="inlineStr">
@@ -42216,7 +42215,7 @@
       </c>
       <c r="H236" s="0" t="inlineStr">
         <is>
-          <t>C#m7b5</t>
+          <t>Em6</t>
         </is>
       </c>
       <c r="I236" s="0" t="inlineStr">
@@ -42256,7 +42255,7 @@
       </c>
       <c r="P236" s="0" t="inlineStr">
         <is>
-          <t>C#m7b5</t>
+          <t>Em6</t>
         </is>
       </c>
       <c r="Q236" s="0" t="inlineStr">
@@ -42311,17 +42310,17 @@
       </c>
       <c r="D237" s="0" t="inlineStr">
         <is>
-          <t>Badd9</t>
+          <t>B7</t>
         </is>
       </c>
       <c r="E237" s="0" t="inlineStr">
         <is>
-          <t>Em</t>
+          <t>Em7</t>
         </is>
       </c>
       <c r="F237" s="0" t="inlineStr">
         <is>
-          <t>D#dim</t>
+          <t>D#m7b5</t>
         </is>
       </c>
       <c r="G237" s="0" t="inlineStr">
@@ -42331,12 +42330,12 @@
       </c>
       <c r="H237" s="0" t="inlineStr">
         <is>
-          <t>C#dim</t>
+          <t>Em6</t>
         </is>
       </c>
       <c r="I237" s="0" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Cadd9</t>
         </is>
       </c>
       <c r="J237" s="0" t="inlineStr">
@@ -42356,12 +42355,12 @@
       </c>
       <c r="M237" s="0" t="inlineStr">
         <is>
-          <t>Em</t>
+          <t>Em7</t>
         </is>
       </c>
       <c r="N237" s="0" t="inlineStr">
         <is>
-          <t>D#dim</t>
+          <t>D#m7b5</t>
         </is>
       </c>
       <c r="O237" s="0" t="inlineStr">
@@ -42371,12 +42370,12 @@
       </c>
       <c r="P237" s="0" t="inlineStr">
         <is>
-          <t>C#dim</t>
+          <t>Em6</t>
         </is>
       </c>
       <c r="Q237" s="0" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Cadd9</t>
         </is>
       </c>
       <c r="R237" s="0" t="inlineStr">
@@ -42396,7 +42395,7 @@
       </c>
       <c r="U237" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>Cadd9</t>
         </is>
       </c>
       <c r="V237" s="0" t="inlineStr">
@@ -42446,7 +42445,7 @@
       </c>
       <c r="H238" s="0" t="inlineStr">
         <is>
-          <t>C#dim</t>
+          <t>Em6</t>
         </is>
       </c>
       <c r="I238" s="0" t="inlineStr">
@@ -42486,7 +42485,7 @@
       </c>
       <c r="P238" s="0" t="inlineStr">
         <is>
-          <t>C#dim</t>
+          <t>Em6</t>
         </is>
       </c>
       <c r="Q238" s="0" t="inlineStr">
@@ -42516,7 +42515,7 @@
       </c>
       <c r="V238" s="0" t="inlineStr">
         <is>
-          <t>Bm7</t>
+          <t>D6</t>
         </is>
       </c>
       <c r="W238" s="0">
@@ -42561,7 +42560,7 @@
       </c>
       <c r="H239" s="0" t="inlineStr">
         <is>
-          <t>C#dim</t>
+          <t>Em6</t>
         </is>
       </c>
       <c r="I239" s="0" t="inlineStr">
@@ -42601,7 +42600,7 @@
       </c>
       <c r="P239" s="0" t="inlineStr">
         <is>
-          <t>C#dim</t>
+          <t>Em6</t>
         </is>
       </c>
       <c r="Q239" s="0" t="inlineStr">
@@ -42758,92 +42757,92 @@
       </c>
       <c r="C241" s="0" t="inlineStr">
         <is>
+          <t>Em7</t>
+        </is>
+      </c>
+      <c r="D241" s="0" t="inlineStr">
+        <is>
+          <t>Am7</t>
+        </is>
+      </c>
+      <c r="E241" s="0" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="F241" s="0" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G241" s="0" t="inlineStr">
+        <is>
+          <t>Em6</t>
+        </is>
+      </c>
+      <c r="H241" s="0" t="inlineStr">
+        <is>
+          <t>F#7</t>
+        </is>
+      </c>
+      <c r="I241" s="0" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="J241" s="0" t="inlineStr">
+        <is>
           <t>Em</t>
         </is>
       </c>
-      <c r="D241" s="0" t="inlineStr">
+      <c r="K241" s="0" t="inlineStr">
+        <is>
+          <t>B7sus4</t>
+        </is>
+      </c>
+      <c r="L241" s="0" t="inlineStr">
+        <is>
+          <t>Em7</t>
+        </is>
+      </c>
+      <c r="M241" s="0" t="inlineStr">
         <is>
           <t>Am7</t>
         </is>
       </c>
-      <c r="E241" s="0" t="inlineStr">
+      <c r="N241" s="0" t="inlineStr">
         <is>
           <t>D7</t>
         </is>
       </c>
-      <c r="F241" s="0" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="G241" s="0" t="inlineStr">
-        <is>
-          <t>C#m7b5</t>
-        </is>
-      </c>
-      <c r="H241" s="0" t="inlineStr">
+      <c r="O241" s="0" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="P241" s="0" t="inlineStr">
+        <is>
+          <t>Em6</t>
+        </is>
+      </c>
+      <c r="Q241" s="0" t="inlineStr">
         <is>
           <t>F#7</t>
         </is>
       </c>
-      <c r="I241" s="0" t="inlineStr">
+      <c r="R241" s="0" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="J241" s="0" t="inlineStr">
+      <c r="S241" s="0" t="inlineStr">
         <is>
           <t>Em</t>
         </is>
       </c>
-      <c r="K241" s="0" t="inlineStr">
-        <is>
-          <t>B7sus4</t>
-        </is>
-      </c>
-      <c r="L241" s="0" t="inlineStr">
-        <is>
-          <t>Em</t>
-        </is>
-      </c>
-      <c r="M241" s="0" t="inlineStr">
-        <is>
-          <t>Am7</t>
-        </is>
-      </c>
-      <c r="N241" s="0" t="inlineStr">
-        <is>
-          <t>D7</t>
-        </is>
-      </c>
-      <c r="O241" s="0" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="P241" s="0" t="inlineStr">
-        <is>
-          <t>C#m7b5</t>
-        </is>
-      </c>
-      <c r="Q241" s="0" t="inlineStr">
-        <is>
-          <t>F#7</t>
-        </is>
-      </c>
-      <c r="R241" s="0" t="inlineStr">
-        <is>
-          <t>B7</t>
-        </is>
-      </c>
-      <c r="S241" s="0" t="inlineStr">
-        <is>
-          <t>Em</t>
-        </is>
-      </c>
       <c r="T241" s="0" t="inlineStr">
         <is>
-          <t>Em</t>
+          <t>Em7</t>
         </is>
       </c>
       <c r="U241" s="0" t="inlineStr">
@@ -42853,7 +42852,7 @@
       </c>
       <c r="V241" s="0" t="inlineStr">
         <is>
-          <t>Bm</t>
+          <t>Bm7</t>
         </is>
       </c>
       <c r="W241" s="0">
@@ -42873,92 +42872,92 @@
       </c>
       <c r="C242" s="0" t="inlineStr">
         <is>
+          <t>Em7</t>
+        </is>
+      </c>
+      <c r="D242" s="0" t="inlineStr">
+        <is>
+          <t>Am7</t>
+        </is>
+      </c>
+      <c r="E242" s="0" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="F242" s="0" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G242" s="0" t="inlineStr">
+        <is>
+          <t>C#dim</t>
+        </is>
+      </c>
+      <c r="H242" s="0" t="inlineStr">
+        <is>
+          <t>F#7</t>
+        </is>
+      </c>
+      <c r="I242" s="0" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="J242" s="0" t="inlineStr">
+        <is>
           <t>Em</t>
         </is>
       </c>
-      <c r="D242" s="0" t="inlineStr">
+      <c r="K242" s="0" t="inlineStr">
+        <is>
+          <t>B7sus4</t>
+        </is>
+      </c>
+      <c r="L242" s="0" t="inlineStr">
+        <is>
+          <t>Em7</t>
+        </is>
+      </c>
+      <c r="M242" s="0" t="inlineStr">
         <is>
           <t>Am7</t>
         </is>
       </c>
-      <c r="E242" s="0" t="inlineStr">
+      <c r="N242" s="0" t="inlineStr">
         <is>
           <t>D7</t>
         </is>
       </c>
-      <c r="F242" s="0" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="G242" s="0" t="inlineStr">
+      <c r="O242" s="0" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="P242" s="0" t="inlineStr">
         <is>
           <t>C#dim</t>
         </is>
       </c>
-      <c r="H242" s="0" t="inlineStr">
+      <c r="Q242" s="0" t="inlineStr">
         <is>
           <t>F#7</t>
         </is>
       </c>
-      <c r="I242" s="0" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="J242" s="0" t="inlineStr">
+      <c r="R242" s="0" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="S242" s="0" t="inlineStr">
         <is>
           <t>Em</t>
         </is>
       </c>
-      <c r="K242" s="0" t="inlineStr">
-        <is>
-          <t>Bsus4</t>
-        </is>
-      </c>
-      <c r="L242" s="0" t="inlineStr">
-        <is>
-          <t>Em</t>
-        </is>
-      </c>
-      <c r="M242" s="0" t="inlineStr">
-        <is>
-          <t>Am7</t>
-        </is>
-      </c>
-      <c r="N242" s="0" t="inlineStr">
-        <is>
-          <t>D7</t>
-        </is>
-      </c>
-      <c r="O242" s="0" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="P242" s="0" t="inlineStr">
-        <is>
-          <t>C#dim</t>
-        </is>
-      </c>
-      <c r="Q242" s="0" t="inlineStr">
-        <is>
-          <t>F#7</t>
-        </is>
-      </c>
-      <c r="R242" s="0" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="S242" s="0" t="inlineStr">
-        <is>
-          <t>Em</t>
-        </is>
-      </c>
       <c r="T242" s="0" t="inlineStr">
         <is>
-          <t>Em</t>
+          <t>Em7</t>
         </is>
       </c>
       <c r="U242" s="0" t="inlineStr">
@@ -42968,7 +42967,7 @@
       </c>
       <c r="V242" s="0" t="inlineStr">
         <is>
-          <t>Bm</t>
+          <t>Bm7</t>
         </is>
       </c>
       <c r="W242" s="0">
@@ -43008,7 +43007,7 @@
       </c>
       <c r="G243" s="0" t="inlineStr">
         <is>
-          <t>C#dim</t>
+          <t>Em6</t>
         </is>
       </c>
       <c r="H243" s="0" t="inlineStr">
@@ -43028,7 +43027,7 @@
       </c>
       <c r="K243" s="0" t="inlineStr">
         <is>
-          <t>Bsus4</t>
+          <t>B7sus4</t>
         </is>
       </c>
       <c r="L243" s="0" t="inlineStr">
@@ -43053,7 +43052,7 @@
       </c>
       <c r="P243" s="0" t="inlineStr">
         <is>
-          <t>C#dim</t>
+          <t>Em6</t>
         </is>
       </c>
       <c r="Q243" s="0" t="inlineStr">
@@ -43123,7 +43122,7 @@
       </c>
       <c r="G244" s="0" t="inlineStr">
         <is>
-          <t>C#dim</t>
+          <t>Em6</t>
         </is>
       </c>
       <c r="H244" s="0" t="inlineStr">
@@ -43143,7 +43142,7 @@
       </c>
       <c r="K244" s="0" t="inlineStr">
         <is>
-          <t>B7sus4</t>
+          <t>B7</t>
         </is>
       </c>
       <c r="L244" s="0" t="inlineStr">
@@ -43168,7 +43167,7 @@
       </c>
       <c r="P244" s="0" t="inlineStr">
         <is>
-          <t>C#dim</t>
+          <t>Em6</t>
         </is>
       </c>
       <c r="Q244" s="0" t="inlineStr">
@@ -43188,7 +43187,7 @@
       </c>
       <c r="T244" s="0" t="inlineStr">
         <is>
-          <t>Em</t>
+          <t>Em7</t>
         </is>
       </c>
       <c r="U244" s="0" t="inlineStr">
@@ -43455,57 +43454,57 @@
       </c>
       <c r="F247" s="0" t="inlineStr">
         <is>
+          <t>A#add9</t>
+        </is>
+      </c>
+      <c r="G247" s="0" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="H247" s="0" t="inlineStr">
+        <is>
+          <t>Gm7</t>
+        </is>
+      </c>
+      <c r="I247" s="0" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
+      </c>
+      <c r="J247" s="0" t="inlineStr">
+        <is>
+          <t>Am7</t>
+        </is>
+      </c>
+      <c r="K247" s="0" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="L247" s="0" t="inlineStr">
+        <is>
+          <t>A#add9</t>
+        </is>
+      </c>
+      <c r="M247" s="0" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N247" s="0" t="inlineStr">
+        <is>
           <t>A#</t>
         </is>
       </c>
-      <c r="G247" s="0" t="inlineStr">
+      <c r="O247" s="0" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="H247" s="0" t="inlineStr">
-        <is>
-          <t>Gm7</t>
-        </is>
-      </c>
-      <c r="I247" s="0" t="inlineStr">
-        <is>
-          <t>C7</t>
-        </is>
-      </c>
-      <c r="J247" s="0" t="inlineStr">
-        <is>
-          <t>Am7</t>
-        </is>
-      </c>
-      <c r="K247" s="0" t="inlineStr">
-        <is>
-          <t>D7</t>
-        </is>
-      </c>
-      <c r="L247" s="0" t="inlineStr">
-        <is>
-          <t>A#</t>
-        </is>
-      </c>
-      <c r="M247" s="0" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="N247" s="0" t="inlineStr">
-        <is>
-          <t>A#</t>
-        </is>
-      </c>
-      <c r="O247" s="0" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
       <c r="P247" s="0" t="inlineStr">
         <is>
-          <t>A#</t>
+          <t>A#add9</t>
         </is>
       </c>
       <c r="Q247" s="0" t="inlineStr">
@@ -44142,7 +44141,7 @@
       </c>
       <c r="G253" s="0" t="inlineStr">
         <is>
-          <t>Dm</t>
+          <t>Dm7</t>
         </is>
       </c>
       <c r="H253" s="0" t="inlineStr">
@@ -44464,7 +44463,7 @@
       </c>
       <c r="D256" s="0" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Cadd9</t>
         </is>
       </c>
       <c r="E256" s="0" t="inlineStr">
@@ -44479,7 +44478,7 @@
       </c>
       <c r="G256" s="0" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Cadd9</t>
         </is>
       </c>
       <c r="H256" s="0" t="inlineStr">
@@ -44509,7 +44508,7 @@
       </c>
       <c r="M256" s="0" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Cadd9</t>
         </is>
       </c>
       <c r="N256" s="0" t="inlineStr">
@@ -44524,7 +44523,7 @@
       </c>
       <c r="P256" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>Cadd9</t>
         </is>
       </c>
       <c r="Q256" s="0" t="inlineStr">
@@ -44539,7 +44538,7 @@
       </c>
       <c r="S256" s="0" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Cadd9</t>
         </is>
       </c>
       <c r="T256" s="0" t="inlineStr">
@@ -44554,7 +44553,7 @@
       </c>
       <c r="V256" s="0" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Cadd9</t>
         </is>
       </c>
       <c r="W256" s="0">
@@ -45618,7 +45617,7 @@
       </c>
       <c r="H266" s="0" t="inlineStr">
         <is>
-          <t>CM7</t>
+          <t>Cadd9</t>
         </is>
       </c>
       <c r="I266" s="0" t="inlineStr">
@@ -45678,12 +45677,12 @@
       </c>
       <c r="T266" s="0" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Cadd9</t>
         </is>
       </c>
       <c r="U266" s="0" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Cadd9</t>
         </is>
       </c>
       <c r="V266" s="0" t="inlineStr">
@@ -46048,7 +46047,7 @@
     <row r="271">
       <c r="B271" s="0" t="inlineStr">
         <is>
-          <t>cosine similarity matching harmonic 0.6-6 template scaled, sparse ln scaled, E2-D#6, select first</t>
+          <t>mean reassign</t>
         </is>
       </c>
     </row>
@@ -46744,7 +46743,7 @@
       </c>
       <c r="E278" s="0" t="inlineStr">
         <is>
-          <t>F#m7b5</t>
+          <t>A6</t>
         </is>
       </c>
       <c r="F278" s="0" t="inlineStr">
@@ -46824,7 +46823,7 @@
       </c>
       <c r="U278" s="0" t="inlineStr">
         <is>
-          <t>F#m7b5</t>
+          <t>A6</t>
         </is>
       </c>
       <c r="V278" s="0" t="inlineStr">
@@ -46859,7 +46858,7 @@
       </c>
       <c r="E279" s="0" t="inlineStr">
         <is>
-          <t>F#m7b5</t>
+          <t>A6</t>
         </is>
       </c>
       <c r="F279" s="0" t="inlineStr">
@@ -46939,7 +46938,7 @@
       </c>
       <c r="U279" s="0" t="inlineStr">
         <is>
-          <t>F#m7b5</t>
+          <t>A6</t>
         </is>
       </c>
       <c r="V279" s="0" t="inlineStr">
@@ -46974,7 +46973,7 @@
       </c>
       <c r="E280" s="0" t="inlineStr">
         <is>
-          <t>F#m7b5</t>
+          <t>Am</t>
         </is>
       </c>
       <c r="F280" s="0" t="inlineStr">
@@ -47054,7 +47053,7 @@
       </c>
       <c r="U280" s="0" t="inlineStr">
         <is>
-          <t>F#m7b5</t>
+          <t>Am</t>
         </is>
       </c>
       <c r="V280" s="0" t="inlineStr">
@@ -47089,7 +47088,7 @@
       </c>
       <c r="E281" s="0" t="inlineStr">
         <is>
-          <t>F#m7b5</t>
+          <t>A6</t>
         </is>
       </c>
       <c r="F281" s="0" t="inlineStr">
@@ -47169,7 +47168,7 @@
       </c>
       <c r="U281" s="0" t="inlineStr">
         <is>
-          <t>F#m7b5</t>
+          <t>A6</t>
         </is>
       </c>
       <c r="V281" s="0" t="inlineStr">
@@ -48253,7 +48252,7 @@
       </c>
       <c r="K291" s="0" t="inlineStr">
         <is>
-          <t>Bsus4</t>
+          <t>E</t>
         </is>
       </c>
       <c r="L291" s="0" t="inlineStr">
@@ -48785,7 +48784,7 @@
       </c>
       <c r="D296" s="0" t="inlineStr">
         <is>
-          <t>C#aug</t>
+          <t>Faug</t>
         </is>
       </c>
       <c r="E296" s="0" t="inlineStr">
@@ -48830,7 +48829,7 @@
       </c>
       <c r="M296" s="0" t="inlineStr">
         <is>
-          <t>C#aug</t>
+          <t>Faug</t>
         </is>
       </c>
       <c r="N296" s="0" t="inlineStr">
@@ -49824,7 +49823,7 @@
       </c>
       <c r="H305" s="0" t="inlineStr">
         <is>
-          <t>C#m7b5</t>
+          <t>Em</t>
         </is>
       </c>
       <c r="I305" s="0" t="inlineStr">
@@ -49864,7 +49863,7 @@
       </c>
       <c r="P305" s="0" t="inlineStr">
         <is>
-          <t>C#m7b5</t>
+          <t>Em</t>
         </is>
       </c>
       <c r="Q305" s="0" t="inlineStr">
@@ -49894,7 +49893,7 @@
       </c>
       <c r="V305" s="0" t="inlineStr">
         <is>
-          <t>Bm7</t>
+          <t>D6</t>
         </is>
       </c>
       <c r="W305" s="0">
@@ -50386,7 +50385,7 @@
       </c>
       <c r="G310" s="0" t="inlineStr">
         <is>
-          <t>C#m7b5</t>
+          <t>Em</t>
         </is>
       </c>
       <c r="H310" s="0" t="inlineStr">
@@ -50431,7 +50430,7 @@
       </c>
       <c r="P310" s="0" t="inlineStr">
         <is>
-          <t>C#m7b5</t>
+          <t>Em</t>
         </is>
       </c>
       <c r="Q310" s="0" t="inlineStr">
@@ -52454,7 +52453,7 @@
       </c>
       <c r="M328" s="0" t="inlineStr">
         <is>
-          <t>Asus4</t>
+          <t>Dadd9</t>
         </is>
       </c>
       <c r="N328" s="0" t="inlineStr">
@@ -52569,7 +52568,7 @@
       </c>
       <c r="M329" s="0" t="inlineStr">
         <is>
-          <t>Asus4</t>
+          <t>Dadd9</t>
         </is>
       </c>
       <c r="N329" s="0" t="inlineStr">
@@ -52684,7 +52683,7 @@
       </c>
       <c r="M330" s="0" t="inlineStr">
         <is>
-          <t>Asus4</t>
+          <t>Dsus4</t>
         </is>
       </c>
       <c r="N330" s="0" t="inlineStr">
@@ -52799,7 +52798,7 @@
       </c>
       <c r="M331" s="0" t="inlineStr">
         <is>
-          <t>Asus4</t>
+          <t>Dadd9</t>
         </is>
       </c>
       <c r="N331" s="0" t="inlineStr">
